--- a/data/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
+++ b/data/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
@@ -492,7 +492,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C2" s="2" t="n">
@@ -532,7 +532,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C3" s="2" t="n">
@@ -572,7 +572,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C4" s="2" t="n">
@@ -612,7 +612,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C5" s="2" t="n">
@@ -652,7 +652,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C6" s="2" t="n">
@@ -692,7 +692,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C7" s="2" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C8" s="2" t="n">
@@ -772,7 +772,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C9" s="2" t="n">
@@ -812,7 +812,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C10" s="2" t="n">
@@ -852,7 +852,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C11" s="2" t="n">
@@ -892,7 +892,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C12" s="2" t="n">
@@ -932,7 +932,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C13" s="2" t="n">
@@ -972,7 +972,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C14" s="2" t="n">
@@ -1012,7 +1012,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C15" s="2" t="n">
@@ -1052,7 +1052,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C16" s="2" t="n">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C17" s="2" t="n">
@@ -1130,7 +1130,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C18" s="2" t="n">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" s="2" t="n">
@@ -1208,7 +1208,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C20" s="2" t="n">
@@ -1247,7 +1247,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C21" s="2" t="n">
@@ -1286,7 +1286,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C22" s="2" t="n">
@@ -1325,7 +1325,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C23" s="2" t="n">
@@ -1364,7 +1364,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C24" s="2" t="n">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C25" s="2" t="n">
@@ -1442,7 +1442,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C26" s="2" t="n">
@@ -1481,7 +1481,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C27" s="2" t="n">
@@ -1520,7 +1520,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C28" s="2" t="n">
@@ -1559,7 +1559,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C29" s="2" t="n">
@@ -1598,7 +1598,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C30" s="2" t="n">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C31" s="2" t="n">
@@ -1676,7 +1676,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" s="2" t="n">
@@ -1715,7 +1715,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C33" s="2" t="n">
@@ -1754,7 +1754,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" s="2" t="n">
@@ -1793,7 +1793,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C35" s="2" t="n">
@@ -1832,7 +1832,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C36" s="2" t="n">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C37" s="2" t="n">
@@ -1910,7 +1910,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C38" s="2" t="n">
@@ -1949,7 +1949,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C39" s="2" t="n">
@@ -1988,7 +1988,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C40" s="2" t="n">
@@ -2027,7 +2027,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C41" s="2" t="n">
@@ -2066,7 +2066,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C42" s="2" t="n">
@@ -2105,7 +2105,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C43" s="2" t="n">
@@ -2144,7 +2144,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C44" s="2" t="n">
@@ -2183,7 +2183,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C45" s="2" t="n">
@@ -2222,7 +2222,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C46" s="2" t="n">
@@ -2261,7 +2261,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C47" s="2" t="n">
@@ -2300,7 +2300,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C48" s="2" t="n">
@@ -2339,7 +2339,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C49" s="2" t="n">
@@ -2378,7 +2378,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C50" s="2" t="n">
@@ -2417,7 +2417,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C51" s="2" t="n">
@@ -2456,7 +2456,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C52" s="2" t="n">
@@ -2495,7 +2495,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C53" s="2" t="n">
@@ -2534,7 +2534,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C54" s="2" t="n">
@@ -2573,7 +2573,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C55" s="2" t="n">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C56" s="2" t="n">
@@ -2651,7 +2651,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C57" s="2" t="n">
@@ -2690,7 +2690,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C58" s="2" t="n">
@@ -2729,7 +2729,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C59" s="2" t="n">
@@ -2768,7 +2768,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C60" s="2" t="n">
@@ -2807,7 +2807,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C61" s="2" t="n">
@@ -2846,7 +2846,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C62" s="2" t="n">
@@ -2885,7 +2885,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C63" s="2" t="n">
@@ -2924,7 +2924,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C64" s="2" t="n">
@@ -2963,7 +2963,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C65" s="2" t="n">
@@ -3002,7 +3002,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C66" s="2" t="n">
@@ -3041,7 +3041,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C67" s="2" t="n">
@@ -3080,7 +3080,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C68" s="2" t="n">
@@ -3119,7 +3119,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C69" s="2" t="n">
@@ -3158,7 +3158,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C70" s="2" t="n">
@@ -3197,7 +3197,7 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C71" s="2" t="n">
@@ -3236,7 +3236,7 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C72" s="2" t="n">
@@ -3275,7 +3275,7 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C73" s="2" t="n">
@@ -3314,7 +3314,7 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C74" s="2" t="n">
@@ -3353,7 +3353,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C75" s="2" t="n">
@@ -3392,7 +3392,7 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C76" s="2" t="n">
@@ -3431,7 +3431,7 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C77" s="2" t="n">
@@ -3470,7 +3470,7 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C78" s="2" t="n">
@@ -3509,7 +3509,7 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C79" s="2" t="n">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C80" s="2" t="n">
@@ -3587,7 +3587,7 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C81" s="2" t="n">
@@ -3626,7 +3626,7 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C82" s="2" t="n">
@@ -3665,7 +3665,7 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C83" s="2" t="n">
@@ -3704,7 +3704,7 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C84" s="2" t="n">
@@ -3743,7 +3743,7 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C85" s="2" t="n">
@@ -3782,7 +3782,7 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C86" s="2" t="n">
@@ -3821,7 +3821,7 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C87" s="2" t="n">
@@ -3860,7 +3860,7 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C88" s="2" t="n">
@@ -3899,7 +3899,7 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C89" s="2" t="n">
@@ -3938,7 +3938,7 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C90" s="2" t="n">
@@ -3977,7 +3977,7 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C91" s="2" t="n">
@@ -4016,7 +4016,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C92" s="2" t="n">
@@ -4055,7 +4055,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C93" s="2" t="n">
@@ -4094,7 +4094,7 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C94" s="2" t="n">
@@ -4133,7 +4133,7 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C95" s="2" t="n">
@@ -4172,7 +4172,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C96" s="2" t="n">
@@ -4211,7 +4211,7 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C97" s="2" t="n">
@@ -4250,7 +4250,7 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C98" s="2" t="n">
@@ -4289,7 +4289,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C99" s="2" t="n">
@@ -4328,7 +4328,7 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C100" s="2" t="n">
@@ -4367,7 +4367,7 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C101" s="2" t="n">
@@ -4406,7 +4406,7 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C102" s="2" t="n">
@@ -4445,7 +4445,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C103" s="2" t="n">
@@ -4484,7 +4484,7 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C104" s="2" t="n">
@@ -4523,7 +4523,7 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C105" s="2" t="n">
@@ -4562,7 +4562,7 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C106" s="2" t="n">
@@ -4601,7 +4601,7 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C107" s="2" t="n">
@@ -4640,7 +4640,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C108" s="2" t="n">
@@ -4679,7 +4679,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C109" s="2" t="n">
@@ -4718,7 +4718,7 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C110" s="2" t="n">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C111" s="2" t="n">
@@ -4796,7 +4796,7 @@
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C112" s="2" t="n">
@@ -4835,7 +4835,7 @@
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C113" s="2" t="n">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C114" s="2" t="n">
@@ -4913,7 +4913,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C115" s="2" t="n">
@@ -4952,7 +4952,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C116" s="2" t="n">
@@ -4991,7 +4991,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C117" s="2" t="n">
@@ -5030,7 +5030,7 @@
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C118" s="2" t="n">
@@ -5069,7 +5069,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C119" s="2" t="n">
@@ -5108,7 +5108,7 @@
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C120" s="2" t="n">
@@ -5147,7 +5147,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C121" s="2" t="n">
@@ -5186,7 +5186,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C122" s="2" t="n">
@@ -5225,7 +5225,7 @@
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C123" s="2" t="n">
@@ -5264,7 +5264,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C124" s="2" t="n">
@@ -5303,7 +5303,7 @@
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C125" s="2" t="n">
@@ -5342,7 +5342,7 @@
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C126" s="2" t="n">
@@ -5381,7 +5381,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C127" s="2" t="n">
@@ -5420,7 +5420,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C128" s="2" t="n">
@@ -5459,7 +5459,7 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C129" s="2" t="n">
@@ -5498,7 +5498,7 @@
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C130" s="2" t="n">
@@ -5537,7 +5537,7 @@
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C131" s="2" t="n">
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C132" s="2" t="n">
@@ -5615,7 +5615,7 @@
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C133" s="2" t="n">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C134" s="2" t="n">
@@ -5693,7 +5693,7 @@
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C135" s="2" t="n">
@@ -5732,7 +5732,7 @@
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C136" s="2" t="n">
@@ -5771,7 +5771,7 @@
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C137" s="2" t="n">
@@ -5810,7 +5810,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C138" s="2" t="n">
@@ -5849,7 +5849,7 @@
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C139" s="2" t="n">
@@ -5888,7 +5888,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C140" s="2" t="n">
@@ -5927,7 +5927,7 @@
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C141" s="2" t="n">
@@ -5966,7 +5966,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C142" s="2" t="n">
@@ -6005,7 +6005,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C143" s="2" t="n">
@@ -6044,7 +6044,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C144" s="2" t="n">
@@ -6083,7 +6083,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C145" s="2" t="n">
@@ -6122,7 +6122,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C146" s="2" t="n">
@@ -6161,7 +6161,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C147" s="2" t="n">
@@ -6200,7 +6200,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C148" s="2" t="n">
@@ -6239,7 +6239,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C149" s="2" t="n">
@@ -6278,7 +6278,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C150" s="2" t="n">
@@ -6317,7 +6317,7 @@
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C151" s="2" t="n">
@@ -6356,7 +6356,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C152" s="2" t="n">
@@ -6395,7 +6395,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C153" s="2" t="n">
@@ -6434,7 +6434,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C154" s="2" t="n">
@@ -6473,7 +6473,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C155" s="2" t="n">
@@ -6512,7 +6512,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C156" s="2" t="n">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C157" s="2" t="n">
@@ -6590,7 +6590,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C158" s="2" t="n">
@@ -6629,7 +6629,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C159" s="2" t="n">
@@ -6668,7 +6668,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C160" s="2" t="n">
@@ -6707,7 +6707,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C161" s="2" t="n">
@@ -6746,7 +6746,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C162" s="2" t="n">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C163" s="2" t="n">
@@ -6824,7 +6824,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C164" s="2" t="n">
@@ -6863,7 +6863,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C165" s="2" t="n">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C166" s="2" t="n">
@@ -6941,7 +6941,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C167" s="2" t="n">
@@ -6980,7 +6980,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C168" s="2" t="n">
@@ -7019,7 +7019,7 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C169" s="2" t="n">
@@ -7058,7 +7058,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C170" s="2" t="n">
@@ -7097,7 +7097,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C171" s="2" t="n">
@@ -7136,7 +7136,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C172" s="2" t="n">
@@ -7175,7 +7175,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C173" s="2" t="n">
@@ -7214,7 +7214,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C174" s="2" t="n">
@@ -7253,7 +7253,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C175" s="2" t="n">
@@ -7292,7 +7292,7 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C176" s="2" t="n">
@@ -7331,7 +7331,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C177" s="2" t="n">
@@ -7370,7 +7370,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C178" s="2" t="n">
@@ -7409,7 +7409,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C179" s="2" t="n">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C180" s="2" t="n">
@@ -7487,7 +7487,7 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C181" s="2" t="n">
@@ -7526,7 +7526,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C182" s="2" t="n">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C183" s="2" t="n">
@@ -7604,7 +7604,7 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C184" s="2" t="n">
@@ -7643,7 +7643,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C185" s="2" t="n">
@@ -7682,7 +7682,7 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C186" s="2" t="n">
@@ -7721,7 +7721,7 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C187" s="2" t="n">
@@ -7760,7 +7760,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C188" s="2" t="n">
@@ -7799,7 +7799,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C189" s="2" t="n">
@@ -7838,7 +7838,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C190" s="2" t="n">
@@ -7877,7 +7877,7 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C191" s="2" t="n">
@@ -7916,7 +7916,7 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C192" s="2" t="n">
@@ -7955,7 +7955,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C193" s="2" t="n">
@@ -7994,7 +7994,7 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C194" s="2" t="n">
@@ -8033,7 +8033,7 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C195" s="2" t="n">
@@ -8072,7 +8072,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C196" s="2" t="n">
@@ -8111,7 +8111,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C197" s="2" t="n">
@@ -8150,7 +8150,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C198" s="2" t="n">
@@ -8189,7 +8189,7 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C199" s="2" t="n">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C200" s="2" t="n">
@@ -8267,7 +8267,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C201" s="2" t="n">
@@ -8306,7 +8306,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C202" s="2" t="n">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C203" s="2" t="n">
@@ -8384,7 +8384,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C204" s="2" t="n">
@@ -8423,7 +8423,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C205" s="2" t="n">
@@ -8462,7 +8462,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C206" s="2" t="n">
@@ -8501,7 +8501,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C207" s="2" t="n">
@@ -8540,7 +8540,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C208" s="2" t="n">
@@ -8579,7 +8579,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C209" s="2" t="n">
@@ -8618,7 +8618,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C210" s="2" t="n">
@@ -8657,7 +8657,7 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C211" s="2" t="n">
@@ -8696,7 +8696,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C212" s="2" t="n">
@@ -8735,7 +8735,7 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C213" s="2" t="n">
@@ -8774,7 +8774,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C214" s="2" t="n">
@@ -8813,7 +8813,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C215" s="2" t="n">
@@ -8852,7 +8852,7 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C216" s="2" t="n">
@@ -8891,7 +8891,7 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C217" s="2" t="n">
@@ -8930,7 +8930,7 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C218" s="2" t="n">
@@ -8969,7 +8969,7 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C219" s="2" t="n">
@@ -9008,7 +9008,7 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C220" s="2" t="n">
@@ -9047,7 +9047,7 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C221" s="2" t="n">
@@ -9086,7 +9086,7 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C222" s="2" t="n">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C223" s="2" t="n">
@@ -9164,7 +9164,7 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C224" s="2" t="n">
@@ -9203,7 +9203,7 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C225" s="2" t="n">
@@ -9242,7 +9242,7 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C226" s="2" t="n">
@@ -9281,7 +9281,7 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C227" s="2" t="n">
@@ -9320,7 +9320,7 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C228" s="2" t="n">
@@ -9359,7 +9359,7 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C229" s="2" t="n">
@@ -9398,7 +9398,7 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C230" s="2" t="n">
@@ -9437,7 +9437,7 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C231" s="2" t="n">
@@ -9476,7 +9476,7 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C232" s="2" t="n">
@@ -9515,7 +9515,7 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C233" s="2" t="n">
@@ -9554,7 +9554,7 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C234" s="2" t="n">
@@ -9593,7 +9593,7 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C235" s="2" t="n">
@@ -9632,7 +9632,7 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C236" s="2" t="n">
@@ -9671,7 +9671,7 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C237" s="2" t="n">
@@ -9710,7 +9710,7 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C238" s="2" t="n">
@@ -9749,7 +9749,7 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C239" s="2" t="n">
@@ -9788,7 +9788,7 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C240" s="2" t="n">
@@ -9827,7 +9827,7 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C241" s="2" t="n">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C242" s="2" t="n">
@@ -9905,7 +9905,7 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C243" s="2" t="n">
@@ -9944,7 +9944,7 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C244" s="2" t="n">
@@ -9983,7 +9983,7 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C245" s="2" t="n">
@@ -10022,7 +10022,7 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C246" s="2" t="n">
@@ -10061,7 +10061,7 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C247" s="2" t="n">
@@ -10100,7 +10100,7 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C248" s="2" t="n">
@@ -10139,7 +10139,7 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C249" s="2" t="n">
@@ -10178,7 +10178,7 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C250" s="2" t="n">
@@ -10217,7 +10217,7 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C251" s="2" t="n">
@@ -10256,7 +10256,7 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C252" s="2" t="n">
@@ -10295,7 +10295,7 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C253" s="2" t="n">
@@ -10334,7 +10334,7 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C254" s="2" t="n">
@@ -10373,7 +10373,7 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C255" s="2" t="n">
@@ -10412,7 +10412,7 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C256" s="2" t="n">
@@ -10451,7 +10451,7 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C257" s="2" t="n">
@@ -10490,7 +10490,7 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C258" s="2" t="n">
@@ -10529,7 +10529,7 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C259" s="2" t="n">
@@ -10568,7 +10568,7 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C260" s="2" t="n">
@@ -10607,7 +10607,7 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C261" s="2" t="n">
@@ -10646,7 +10646,7 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C262" s="2" t="n">
@@ -10685,7 +10685,7 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C263" s="2" t="n">
@@ -10724,7 +10724,7 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C264" s="2" t="n">
@@ -10763,7 +10763,7 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C265" s="2" t="n">
@@ -10802,7 +10802,7 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C266" s="2" t="n">
@@ -10841,7 +10841,7 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C267" s="2" t="n">
@@ -10880,7 +10880,7 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C268" s="2" t="n">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C269" s="2" t="n">
@@ -10958,7 +10958,7 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C270" s="2" t="n">
@@ -10997,7 +10997,7 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C271" s="2" t="n">
@@ -11036,7 +11036,7 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C272" s="2" t="n">
@@ -11075,7 +11075,7 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C273" s="2" t="n">
@@ -11114,7 +11114,7 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C274" s="2" t="n">
@@ -11153,7 +11153,7 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C275" s="2" t="n">
@@ -11192,7 +11192,7 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C276" s="2" t="n">
@@ -11231,7 +11231,7 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C277" s="2" t="n">
@@ -11270,7 +11270,7 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C278" s="2" t="n">
@@ -11309,7 +11309,7 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C279" s="2" t="n">
@@ -11348,7 +11348,7 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C280" s="2" t="n">
@@ -11387,7 +11387,7 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C281" s="2" t="n">
@@ -11426,7 +11426,7 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C282" s="2" t="n">
@@ -11465,7 +11465,7 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C283" s="2" t="n">
@@ -11504,7 +11504,7 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C284" s="2" t="n">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C285" s="2" t="n">
@@ -11582,7 +11582,7 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C286" s="2" t="n">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C287" s="2" t="n">
@@ -11660,7 +11660,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C288" s="2" t="n">
@@ -11699,7 +11699,7 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C289" s="2" t="n">
@@ -11738,7 +11738,7 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C290" s="2" t="n">
@@ -11777,7 +11777,7 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C291" s="2" t="n">
@@ -11816,7 +11816,7 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C292" s="2" t="n">
@@ -11855,7 +11855,7 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C293" s="2" t="n">
@@ -11894,7 +11894,7 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C294" s="2" t="n">
@@ -11933,7 +11933,7 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C295" s="2" t="n">
@@ -11972,7 +11972,7 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C296" s="2" t="n">
@@ -12011,7 +12011,7 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C297" s="2" t="n">
@@ -12050,7 +12050,7 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C298" s="2" t="n">
@@ -12089,7 +12089,7 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C299" s="2" t="n">
@@ -12128,7 +12128,7 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C300" s="2" t="n">
@@ -12167,7 +12167,7 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C301" s="2" t="n">
@@ -12206,7 +12206,7 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C302" s="2" t="n">
@@ -12245,7 +12245,7 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C303" s="2" t="n">
@@ -12284,7 +12284,7 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C304" s="2" t="n">
@@ -12323,7 +12323,7 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C305" s="2" t="n">
@@ -12362,7 +12362,7 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C306" s="2" t="n">
@@ -12401,7 +12401,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C307" s="2" t="n">
@@ -12440,7 +12440,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C308" s="2" t="n">
@@ -12479,7 +12479,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C309" s="2" t="n">
@@ -12518,7 +12518,7 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C310" s="2" t="n">
@@ -12557,7 +12557,7 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C311" s="2" t="n">
@@ -12596,7 +12596,7 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C312" s="2" t="n">
@@ -12635,7 +12635,7 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C313" s="2" t="n">
@@ -12674,7 +12674,7 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C314" s="2" t="n">
@@ -12713,7 +12713,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C315" s="2" t="n">
@@ -12752,7 +12752,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C316" s="2" t="n">
@@ -12791,7 +12791,7 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C317" s="2" t="n">
@@ -12830,7 +12830,7 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C318" s="2" t="n">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C319" s="2" t="n">
@@ -12908,7 +12908,7 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C320" s="2" t="n">
@@ -12947,7 +12947,7 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C321" s="2" t="n">
@@ -12986,7 +12986,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C322" s="2" t="n">
@@ -13025,7 +13025,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C323" s="2" t="n">
@@ -13064,7 +13064,7 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C324" s="2" t="n">
@@ -13103,7 +13103,7 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C325" s="2" t="n">
@@ -13142,7 +13142,7 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C326" s="2" t="n">
@@ -13181,7 +13181,7 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C327" s="2" t="n">
@@ -13220,7 +13220,7 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C328" s="2" t="n">
@@ -13259,7 +13259,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C329" s="2" t="n">
@@ -13298,7 +13298,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C330" s="2" t="n">
@@ -13337,7 +13337,7 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C331" s="2" t="n">
@@ -13376,7 +13376,7 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C332" s="2" t="n">
@@ -13415,7 +13415,7 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C333" s="2" t="n">
@@ -13454,7 +13454,7 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C334" s="2" t="n">
@@ -13493,7 +13493,7 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C335" s="2" t="n">
@@ -13532,7 +13532,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C336" s="2" t="n">
@@ -13571,7 +13571,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>ECOLI</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C337" s="2" t="n">

--- a/data/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
+++ b/data/Contact_Recreation/ManawatuatFoxton_a4d78ac87e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2325" uniqueCount="222">
   <si>
     <t>site name</t>
   </si>
@@ -49,571 +49,601 @@
     <t>E. coli</t>
   </si>
   <si>
-    <t>97</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>5172</t>
-  </si>
-  <si>
-    <t>109</t>
-  </si>
-  <si>
-    <t>355</t>
-  </si>
-  <si>
-    <t>623</t>
-  </si>
-  <si>
-    <t>520</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>&lt;10</t>
-  </si>
-  <si>
-    <t>63</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>44</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>179</t>
-  </si>
-  <si>
-    <t>&lt;1</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>435</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>3130</t>
-  </si>
-  <si>
-    <t>200</t>
-  </si>
-  <si>
-    <t>225</t>
-  </si>
-  <si>
-    <t>345</t>
-  </si>
-  <si>
-    <t>410</t>
-  </si>
-  <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>4110</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>66</t>
-  </si>
-  <si>
-    <t>29</t>
-  </si>
-  <si>
-    <t>970</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>42</t>
-  </si>
-  <si>
-    <t>67</t>
-  </si>
-  <si>
-    <t>8570</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>140</t>
-  </si>
-  <si>
-    <t>610</t>
-  </si>
-  <si>
-    <t>2700</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>870</t>
-  </si>
-  <si>
-    <t>130</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>2800</t>
-  </si>
-  <si>
-    <t>91</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>13000</t>
-  </si>
-  <si>
-    <t>1100</t>
-  </si>
-  <si>
-    <t>560</t>
-  </si>
-  <si>
-    <t>2500</t>
-  </si>
-  <si>
-    <t>73</t>
-  </si>
-  <si>
-    <t>4600</t>
-  </si>
-  <si>
-    <t>590</t>
-  </si>
-  <si>
-    <t>110</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3100</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>2100</t>
-  </si>
-  <si>
-    <t>650</t>
-  </si>
-  <si>
-    <t>64</t>
-  </si>
-  <si>
-    <t>360</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>450</t>
-  </si>
-  <si>
-    <t>580</t>
-  </si>
-  <si>
-    <t>&lt;4</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>770</t>
-  </si>
-  <si>
-    <t>&gt;9700</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>340</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>230</t>
-  </si>
-  <si>
-    <t>3900</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>180</t>
-  </si>
-  <si>
-    <t>220</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
-    <t>54</t>
-  </si>
-  <si>
-    <t>670</t>
-  </si>
-  <si>
-    <t>9700</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>4500</t>
-  </si>
-  <si>
-    <t>190</t>
-  </si>
-  <si>
-    <t>76</t>
-  </si>
-  <si>
-    <t>160</t>
-  </si>
-  <si>
-    <t>710</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>1500</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>2200</t>
-  </si>
-  <si>
-    <t>270</t>
-  </si>
-  <si>
-    <t>390</t>
-  </si>
-  <si>
-    <t>87</t>
-  </si>
-  <si>
-    <t>720</t>
-  </si>
-  <si>
-    <t>3700</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>430</t>
-  </si>
-  <si>
-    <t>990</t>
-  </si>
-  <si>
-    <t>134</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>3260</t>
-  </si>
-  <si>
-    <t>144</t>
-  </si>
-  <si>
-    <t>145</t>
-  </si>
-  <si>
-    <t>&lt;9</t>
-  </si>
-  <si>
-    <t>839</t>
-  </si>
-  <si>
-    <t>161</t>
-  </si>
-  <si>
-    <t>4350</t>
-  </si>
-  <si>
-    <t>158</t>
-  </si>
-  <si>
-    <t>216</t>
-  </si>
-  <si>
-    <t>2360</t>
-  </si>
-  <si>
-    <t>323</t>
-  </si>
-  <si>
-    <t>98</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>776</t>
-  </si>
-  <si>
-    <t>2490</t>
-  </si>
-  <si>
-    <t>521</t>
-  </si>
-  <si>
-    <t>816</t>
-  </si>
-  <si>
-    <t>233</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>199</t>
-  </si>
-  <si>
-    <t>265</t>
-  </si>
-  <si>
-    <t>882</t>
-  </si>
-  <si>
-    <t>173</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>860</t>
-  </si>
-  <si>
-    <t>548</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>581</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>327</t>
-  </si>
-  <si>
-    <t>2720</t>
-  </si>
-  <si>
-    <t>279</t>
-  </si>
-  <si>
-    <t>253</t>
-  </si>
-  <si>
-    <t>301</t>
-  </si>
-  <si>
-    <t>85</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>1046</t>
-  </si>
-  <si>
-    <t>591</t>
-  </si>
-  <si>
-    <t>1014</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>7700</t>
-  </si>
-  <si>
-    <t>122</t>
-  </si>
-  <si>
-    <t>1467</t>
-  </si>
-  <si>
-    <t>2143</t>
-  </si>
-  <si>
-    <t>272</t>
-  </si>
-  <si>
-    <t>4880</t>
-  </si>
-  <si>
-    <t>285</t>
-  </si>
-  <si>
-    <t>275</t>
-  </si>
-  <si>
-    <t>2282</t>
-  </si>
-  <si>
-    <t>86</t>
-  </si>
-  <si>
-    <t>629</t>
-  </si>
-  <si>
-    <t>295</t>
-  </si>
-  <si>
-    <t>262</t>
-  </si>
-  <si>
-    <t>6130</t>
-  </si>
-  <si>
-    <t>5170</t>
-  </si>
-  <si>
-    <t>905</t>
-  </si>
-  <si>
-    <t>305</t>
-  </si>
-  <si>
-    <t>3650</t>
-  </si>
-  <si>
-    <t>1071</t>
-  </si>
-  <si>
-    <t>1187</t>
-  </si>
-  <si>
-    <t>448</t>
-  </si>
-  <si>
-    <t>1211</t>
-  </si>
-  <si>
-    <t>350</t>
-  </si>
-  <si>
-    <t>8160</t>
-  </si>
-  <si>
-    <t>175</t>
-  </si>
-  <si>
-    <t>384</t>
-  </si>
-  <si>
-    <t>317</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>183</t>
-  </si>
-  <si>
-    <t>1153</t>
-  </si>
-  <si>
-    <t>1259</t>
-  </si>
-  <si>
-    <t>379</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>332</t>
-  </si>
-  <si>
-    <t>364</t>
-  </si>
-  <si>
-    <t>428</t>
-  </si>
-  <si>
-    <t>187</t>
+    <t>97.0</t>
+  </si>
+  <si>
+    <t>20.0</t>
+  </si>
+  <si>
+    <t>5172.0</t>
+  </si>
+  <si>
+    <t>109.0</t>
+  </si>
+  <si>
+    <t>355.0</t>
+  </si>
+  <si>
+    <t>623.0</t>
+  </si>
+  <si>
+    <t>520.0</t>
+  </si>
+  <si>
+    <t>10.0</t>
+  </si>
+  <si>
+    <t>31.0</t>
+  </si>
+  <si>
+    <t>&lt;10.0</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>41.0</t>
+  </si>
+  <si>
+    <t>44.0</t>
+  </si>
+  <si>
+    <t>13.0</t>
+  </si>
+  <si>
+    <t>179.0</t>
+  </si>
+  <si>
+    <t>&lt;1.0</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>435.0</t>
+  </si>
+  <si>
+    <t>39.0</t>
+  </si>
+  <si>
+    <t>3130.0</t>
+  </si>
+  <si>
+    <t>200.0</t>
+  </si>
+  <si>
+    <t>225.0</t>
+  </si>
+  <si>
+    <t>345.0</t>
+  </si>
+  <si>
+    <t>410.0</t>
+  </si>
+  <si>
+    <t>69.0</t>
+  </si>
+  <si>
+    <t>4110.0</t>
+  </si>
+  <si>
+    <t>38.0</t>
+  </si>
+  <si>
+    <t>66.0</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>970.0</t>
+  </si>
+  <si>
+    <t>100.0</t>
+  </si>
+  <si>
+    <t>42.0</t>
+  </si>
+  <si>
+    <t>67.0</t>
+  </si>
+  <si>
+    <t>8570.0</t>
+  </si>
+  <si>
+    <t>490.0</t>
+  </si>
+  <si>
+    <t>140.0</t>
+  </si>
+  <si>
+    <t>610.0</t>
+  </si>
+  <si>
+    <t>2700.0</t>
+  </si>
+  <si>
+    <t>260.0</t>
+  </si>
+  <si>
+    <t>61.0</t>
+  </si>
+  <si>
+    <t>870.0</t>
+  </si>
+  <si>
+    <t>130.0</t>
+  </si>
+  <si>
+    <t>1000.0</t>
+  </si>
+  <si>
+    <t>2800.0</t>
+  </si>
+  <si>
+    <t>91.0</t>
+  </si>
+  <si>
+    <t>30.0</t>
+  </si>
+  <si>
+    <t>13000.0</t>
+  </si>
+  <si>
+    <t>1100.0</t>
+  </si>
+  <si>
+    <t>560.0</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>73.0</t>
+  </si>
+  <si>
+    <t>4600.0</t>
+  </si>
+  <si>
+    <t>590.0</t>
+  </si>
+  <si>
+    <t>110.0</t>
+  </si>
+  <si>
+    <t>12.0</t>
+  </si>
+  <si>
+    <t>16.0</t>
+  </si>
+  <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>3100.0</t>
+  </si>
+  <si>
+    <t>240.0</t>
+  </si>
+  <si>
+    <t>52.0</t>
+  </si>
+  <si>
+    <t>300.0</t>
+  </si>
+  <si>
+    <t>2100.0</t>
+  </si>
+  <si>
+    <t>650.0</t>
+  </si>
+  <si>
+    <t>64.0</t>
+  </si>
+  <si>
+    <t>360.0</t>
+  </si>
+  <si>
+    <t>170.0</t>
+  </si>
+  <si>
+    <t>120.0</t>
+  </si>
+  <si>
+    <t>450.0</t>
+  </si>
+  <si>
+    <t>580.0</t>
+  </si>
+  <si>
+    <t>&lt;4.0</t>
+  </si>
+  <si>
+    <t>25.0</t>
+  </si>
+  <si>
+    <t>770.0</t>
+  </si>
+  <si>
+    <t>&gt;9700.0</t>
+  </si>
+  <si>
+    <t>8.0</t>
+  </si>
+  <si>
+    <t>14.0</t>
+  </si>
+  <si>
+    <t>340.0</t>
+  </si>
+  <si>
+    <t>550.0</t>
+  </si>
+  <si>
+    <t>230.0</t>
+  </si>
+  <si>
+    <t>3900.0</t>
+  </si>
+  <si>
+    <t>90.0</t>
+  </si>
+  <si>
+    <t>80.0</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>75.0</t>
+  </si>
+  <si>
+    <t>180.0</t>
+  </si>
+  <si>
+    <t>220.0</t>
+  </si>
+  <si>
+    <t>440.0</t>
+  </si>
+  <si>
+    <t>150.0</t>
+  </si>
+  <si>
+    <t>780.0</t>
+  </si>
+  <si>
+    <t>54.0</t>
+  </si>
+  <si>
+    <t>670.0</t>
+  </si>
+  <si>
+    <t>9700.0</t>
+  </si>
+  <si>
+    <t>21.0</t>
+  </si>
+  <si>
+    <t>4500.0</t>
+  </si>
+  <si>
+    <t>190.0</t>
+  </si>
+  <si>
+    <t>76.0</t>
+  </si>
+  <si>
+    <t>160.0</t>
+  </si>
+  <si>
+    <t>710.0</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>48.0</t>
+  </si>
+  <si>
+    <t>2200.0</t>
+  </si>
+  <si>
+    <t>270.0</t>
+  </si>
+  <si>
+    <t>390.0</t>
+  </si>
+  <si>
+    <t>87.0</t>
+  </si>
+  <si>
+    <t>720.0</t>
+  </si>
+  <si>
+    <t>3700.0</t>
+  </si>
+  <si>
+    <t>830.0</t>
+  </si>
+  <si>
+    <t>430.0</t>
+  </si>
+  <si>
+    <t>990.0</t>
+  </si>
+  <si>
+    <t>134.0</t>
+  </si>
+  <si>
+    <t>121.0</t>
+  </si>
+  <si>
+    <t>3260.0</t>
+  </si>
+  <si>
+    <t>144.0</t>
+  </si>
+  <si>
+    <t>145.0</t>
+  </si>
+  <si>
+    <t>&lt;9.0</t>
+  </si>
+  <si>
+    <t>839.0</t>
+  </si>
+  <si>
+    <t>161.0</t>
+  </si>
+  <si>
+    <t>4350.0</t>
+  </si>
+  <si>
+    <t>158.0</t>
+  </si>
+  <si>
+    <t>216.0</t>
+  </si>
+  <si>
+    <t>2360.0</t>
+  </si>
+  <si>
+    <t>323.0</t>
+  </si>
+  <si>
+    <t>98.0</t>
+  </si>
+  <si>
+    <t>74.0</t>
+  </si>
+  <si>
+    <t>776.0</t>
+  </si>
+  <si>
+    <t>2490.0</t>
+  </si>
+  <si>
+    <t>521.0</t>
+  </si>
+  <si>
+    <t>816.0</t>
+  </si>
+  <si>
+    <t>233.0</t>
+  </si>
+  <si>
+    <t>72.0</t>
+  </si>
+  <si>
+    <t>199.0</t>
+  </si>
+  <si>
+    <t>265.0</t>
+  </si>
+  <si>
+    <t>882.0</t>
+  </si>
+  <si>
+    <t>173.0</t>
+  </si>
+  <si>
+    <t>62.0</t>
+  </si>
+  <si>
+    <t>860.0</t>
+  </si>
+  <si>
+    <t>548.0</t>
+  </si>
+  <si>
+    <t>96.0</t>
+  </si>
+  <si>
+    <t>581.0</t>
+  </si>
+  <si>
+    <t>213.0</t>
+  </si>
+  <si>
+    <t>327.0</t>
+  </si>
+  <si>
+    <t>2720.0</t>
+  </si>
+  <si>
+    <t>279.0</t>
+  </si>
+  <si>
+    <t>253.0</t>
+  </si>
+  <si>
+    <t>301.0</t>
+  </si>
+  <si>
+    <t>85.0</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>1046.0</t>
+  </si>
+  <si>
+    <t>591.0</t>
+  </si>
+  <si>
+    <t>1014.0</t>
+  </si>
+  <si>
+    <t>259.0</t>
+  </si>
+  <si>
+    <t>7700.0</t>
+  </si>
+  <si>
+    <t>122.0</t>
+  </si>
+  <si>
+    <t>1467.0</t>
+  </si>
+  <si>
+    <t>2143.0</t>
+  </si>
+  <si>
+    <t>272.0</t>
+  </si>
+  <si>
+    <t>4880.0</t>
+  </si>
+  <si>
+    <t>285.0</t>
+  </si>
+  <si>
+    <t>275.0</t>
+  </si>
+  <si>
+    <t>2282.0</t>
+  </si>
+  <si>
+    <t>86.0</t>
+  </si>
+  <si>
+    <t>629.0</t>
+  </si>
+  <si>
+    <t>295.0</t>
+  </si>
+  <si>
+    <t>262.0</t>
+  </si>
+  <si>
+    <t>6130.0</t>
+  </si>
+  <si>
+    <t>5170.0</t>
+  </si>
+  <si>
+    <t>905.0</t>
+  </si>
+  <si>
+    <t>305.0</t>
+  </si>
+  <si>
+    <t>3650.0</t>
+  </si>
+  <si>
+    <t>1071.0</t>
+  </si>
+  <si>
+    <t>1187.0</t>
+  </si>
+  <si>
+    <t>448.0</t>
+  </si>
+  <si>
+    <t>1211.0</t>
+  </si>
+  <si>
+    <t>350.0</t>
+  </si>
+  <si>
+    <t>8160.0</t>
+  </si>
+  <si>
+    <t>175.0</t>
+  </si>
+  <si>
+    <t>384.0</t>
+  </si>
+  <si>
+    <t>317.0</t>
+  </si>
+  <si>
+    <t>51.0</t>
+  </si>
+  <si>
+    <t>183.0</t>
+  </si>
+  <si>
+    <t>1153.0</t>
+  </si>
+  <si>
+    <t>1259.0</t>
+  </si>
+  <si>
+    <t>379.0</t>
+  </si>
+  <si>
+    <t>169.0</t>
+  </si>
+  <si>
+    <t>108.0</t>
+  </si>
+  <si>
+    <t>332.0</t>
+  </si>
+  <si>
+    <t>364.0</t>
+  </si>
+  <si>
+    <t>428.0</t>
+  </si>
+  <si>
+    <t>187.0</t>
+  </si>
+  <si>
+    <t>5475.0</t>
+  </si>
+  <si>
+    <t>84.0</t>
+  </si>
+  <si>
+    <t>823.0</t>
+  </si>
+  <si>
+    <t>2909.0</t>
+  </si>
+  <si>
+    <t>473.0</t>
+  </si>
+  <si>
+    <t>288.0</t>
+  </si>
+  <si>
+    <t>135.0</t>
+  </si>
+  <si>
+    <t>211.0</t>
+  </si>
+  <si>
+    <t>2723.0</t>
+  </si>
+  <si>
+    <t>282.0</t>
   </si>
   <si>
     <t>Contact Recreation</t>
@@ -645,6 +675,9 @@
   </si>
   <si>
     <t>APHA 23rd Ed. 9223 B</t>
+  </si>
+  <si>
+    <t>SMEWW 9223B</t>
   </si>
   <si>
     <t>MPN/100mL</t>
@@ -1009,7 +1042,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I362"/>
+  <dimension ref="A1:I387"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1058,13 +1091,13 @@
         <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G2" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H2">
         <v>600</v>
@@ -1084,13 +1117,13 @@
         <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G3" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H3">
         <v>600</v>
@@ -1110,13 +1143,13 @@
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H4">
         <v>600</v>
@@ -1136,13 +1169,13 @@
         <v>14</v>
       </c>
       <c r="E5" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H5">
         <v>600</v>
@@ -1162,13 +1195,13 @@
         <v>15</v>
       </c>
       <c r="E6" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G6" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H6">
         <v>600</v>
@@ -1188,13 +1221,13 @@
         <v>16</v>
       </c>
       <c r="E7" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F7" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G7" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H7">
         <v>600</v>
@@ -1214,13 +1247,13 @@
         <v>17</v>
       </c>
       <c r="E8" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G8" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H8">
         <v>600</v>
@@ -1240,13 +1273,13 @@
         <v>18</v>
       </c>
       <c r="E9" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F9" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G9" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H9">
         <v>600</v>
@@ -1266,13 +1299,13 @@
         <v>19</v>
       </c>
       <c r="E10" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F10" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G10" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H10">
         <v>600</v>
@@ -1292,13 +1325,13 @@
         <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G11" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H11">
         <v>600</v>
@@ -1318,13 +1351,13 @@
         <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F12" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G12" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H12">
         <v>600</v>
@@ -1344,13 +1377,13 @@
         <v>20</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F13" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G13" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H13">
         <v>600</v>
@@ -1370,13 +1403,13 @@
         <v>21</v>
       </c>
       <c r="E14" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F14" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G14" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H14">
         <v>600</v>
@@ -1396,13 +1429,13 @@
         <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="G15" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H15">
         <v>600</v>
@@ -1422,13 +1455,13 @@
         <v>23</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F16" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G16" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H16">
         <v>600</v>
@@ -1448,13 +1481,13 @@
         <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F17" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G17" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H17">
         <v>600</v>
@@ -1474,13 +1507,13 @@
         <v>25</v>
       </c>
       <c r="E18" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G18" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H18">
         <v>600</v>
@@ -1500,13 +1533,13 @@
         <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F19" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G19" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H19">
         <v>600</v>
@@ -1526,13 +1559,13 @@
         <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F20" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G20" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H20">
         <v>600</v>
@@ -1552,13 +1585,13 @@
         <v>28</v>
       </c>
       <c r="E21" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F21" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G21" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H21">
         <v>600</v>
@@ -1578,13 +1611,13 @@
         <v>29</v>
       </c>
       <c r="E22" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F22" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G22" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H22">
         <v>600</v>
@@ -1604,13 +1637,13 @@
         <v>30</v>
       </c>
       <c r="E23" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F23" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G23" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H23">
         <v>600</v>
@@ -1630,13 +1663,13 @@
         <v>31</v>
       </c>
       <c r="E24" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F24" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G24" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H24">
         <v>600</v>
@@ -1656,13 +1689,13 @@
         <v>31</v>
       </c>
       <c r="E25" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G25" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H25">
         <v>600</v>
@@ -1682,13 +1715,13 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F26" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G26" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H26">
         <v>600</v>
@@ -1708,13 +1741,13 @@
         <v>33</v>
       </c>
       <c r="E27" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F27" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G27" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H27">
         <v>600</v>
@@ -1734,13 +1767,13 @@
         <v>34</v>
       </c>
       <c r="E28" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F28" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G28" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H28">
         <v>600</v>
@@ -1760,13 +1793,13 @@
         <v>35</v>
       </c>
       <c r="E29" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F29" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G29" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H29">
         <v>600</v>
@@ -1786,13 +1819,13 @@
         <v>36</v>
       </c>
       <c r="E30" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F30" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G30" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H30">
         <v>600</v>
@@ -1812,13 +1845,13 @@
         <v>37</v>
       </c>
       <c r="E31" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F31" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G31" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H31">
         <v>600</v>
@@ -1838,13 +1871,13 @@
         <v>38</v>
       </c>
       <c r="E32" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F32" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G32" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H32">
         <v>600</v>
@@ -1864,13 +1897,13 @@
         <v>39</v>
       </c>
       <c r="E33" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F33" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G33" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H33">
         <v>600</v>
@@ -1890,13 +1923,13 @@
         <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F34" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G34" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H34">
         <v>600</v>
@@ -1916,13 +1949,13 @@
         <v>41</v>
       </c>
       <c r="E35" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F35" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G35" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H35">
         <v>600</v>
@@ -1942,13 +1975,13 @@
         <v>42</v>
       </c>
       <c r="E36" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F36" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G36" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H36">
         <v>600</v>
@@ -1968,13 +2001,13 @@
         <v>43</v>
       </c>
       <c r="E37" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F37" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G37" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H37">
         <v>600</v>
@@ -1994,13 +2027,13 @@
         <v>44</v>
       </c>
       <c r="E38" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="F38" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="G38" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H38">
         <v>600</v>
@@ -2020,13 +2053,13 @@
         <v>45</v>
       </c>
       <c r="E39" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F39" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G39" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H39">
         <v>600</v>
@@ -2046,13 +2079,13 @@
         <v>46</v>
       </c>
       <c r="E40" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F40" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G40" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H40">
         <v>600</v>
@@ -2072,13 +2105,13 @@
         <v>47</v>
       </c>
       <c r="E41" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F41" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G41" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H41">
         <v>600</v>
@@ -2098,13 +2131,13 @@
         <v>48</v>
       </c>
       <c r="E42" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F42" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G42" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H42">
         <v>600</v>
@@ -2124,13 +2157,13 @@
         <v>49</v>
       </c>
       <c r="E43" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F43" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G43" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H43">
         <v>600</v>
@@ -2150,13 +2183,13 @@
         <v>50</v>
       </c>
       <c r="E44" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F44" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G44" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H44">
         <v>600</v>
@@ -2176,13 +2209,13 @@
         <v>51</v>
       </c>
       <c r="E45" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F45" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G45" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H45">
         <v>600</v>
@@ -2202,13 +2235,13 @@
         <v>52</v>
       </c>
       <c r="E46" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F46" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G46" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H46">
         <v>600</v>
@@ -2228,13 +2261,13 @@
         <v>12</v>
       </c>
       <c r="E47" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F47" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G47" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H47">
         <v>600</v>
@@ -2254,13 +2287,13 @@
         <v>53</v>
       </c>
       <c r="E48" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G48" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H48">
         <v>600</v>
@@ -2280,13 +2313,13 @@
         <v>54</v>
       </c>
       <c r="E49" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F49" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G49" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H49">
         <v>600</v>
@@ -2306,13 +2339,13 @@
         <v>55</v>
       </c>
       <c r="E50" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F50" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G50" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H50">
         <v>600</v>
@@ -2332,13 +2365,13 @@
         <v>49</v>
       </c>
       <c r="E51" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F51" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G51" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H51">
         <v>600</v>
@@ -2358,13 +2391,13 @@
         <v>56</v>
       </c>
       <c r="E52" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F52" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G52" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H52">
         <v>600</v>
@@ -2384,13 +2417,13 @@
         <v>57</v>
       </c>
       <c r="E53" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F53" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G53" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H53">
         <v>600</v>
@@ -2410,13 +2443,13 @@
         <v>58</v>
       </c>
       <c r="E54" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F54" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G54" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H54">
         <v>600</v>
@@ -2436,13 +2469,13 @@
         <v>59</v>
       </c>
       <c r="E55" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F55" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G55" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H55">
         <v>600</v>
@@ -2462,13 +2495,13 @@
         <v>12</v>
       </c>
       <c r="E56" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F56" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G56" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H56">
         <v>600</v>
@@ -2488,13 +2521,13 @@
         <v>60</v>
       </c>
       <c r="E57" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F57" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G57" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H57">
         <v>600</v>
@@ -2514,13 +2547,13 @@
         <v>61</v>
       </c>
       <c r="E58" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F58" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G58" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H58">
         <v>600</v>
@@ -2540,13 +2573,13 @@
         <v>62</v>
       </c>
       <c r="E59" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F59" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G59" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H59">
         <v>600</v>
@@ -2566,13 +2599,13 @@
         <v>63</v>
       </c>
       <c r="E60" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F60" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G60" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H60">
         <v>600</v>
@@ -2592,13 +2625,13 @@
         <v>64</v>
       </c>
       <c r="E61" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F61" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G61" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H61">
         <v>600</v>
@@ -2618,13 +2651,13 @@
         <v>56</v>
       </c>
       <c r="E62" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F62" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G62" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H62">
         <v>600</v>
@@ -2644,13 +2677,13 @@
         <v>22</v>
       </c>
       <c r="E63" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F63" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G63" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H63">
         <v>600</v>
@@ -2670,13 +2703,13 @@
         <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F64" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G64" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H64">
         <v>600</v>
@@ -2696,13 +2729,13 @@
         <v>65</v>
       </c>
       <c r="E65" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F65" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G65" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H65">
         <v>600</v>
@@ -2722,13 +2755,13 @@
         <v>66</v>
       </c>
       <c r="E66" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F66" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G66" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H66">
         <v>600</v>
@@ -2748,13 +2781,13 @@
         <v>41</v>
       </c>
       <c r="E67" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F67" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G67" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H67">
         <v>600</v>
@@ -2774,13 +2807,13 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F68" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G68" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H68">
         <v>600</v>
@@ -2800,13 +2833,13 @@
         <v>65</v>
       </c>
       <c r="E69" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F69" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H69">
         <v>600</v>
@@ -2826,13 +2859,13 @@
         <v>56</v>
       </c>
       <c r="E70" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F70" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G70" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H70">
         <v>600</v>
@@ -2852,13 +2885,13 @@
         <v>23</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F71" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G71" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H71">
         <v>600</v>
@@ -2878,13 +2911,13 @@
         <v>68</v>
       </c>
       <c r="E72" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F72" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G72" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H72">
         <v>600</v>
@@ -2904,13 +2937,13 @@
         <v>69</v>
       </c>
       <c r="E73" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F73" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G73" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H73">
         <v>600</v>
@@ -2930,13 +2963,13 @@
         <v>70</v>
       </c>
       <c r="E74" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F74" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G74" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H74">
         <v>600</v>
@@ -2956,13 +2989,13 @@
         <v>71</v>
       </c>
       <c r="E75" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F75" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G75" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H75">
         <v>600</v>
@@ -2982,13 +3015,13 @@
         <v>12</v>
       </c>
       <c r="E76" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F76" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G76" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H76">
         <v>600</v>
@@ -3008,13 +3041,13 @@
         <v>72</v>
       </c>
       <c r="E77" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F77" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G77" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H77">
         <v>600</v>
@@ -3034,13 +3067,13 @@
         <v>73</v>
       </c>
       <c r="E78" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F78" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G78" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H78">
         <v>600</v>
@@ -3060,13 +3093,13 @@
         <v>74</v>
       </c>
       <c r="E79" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F79" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G79" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H79">
         <v>600</v>
@@ -3086,13 +3119,13 @@
         <v>65</v>
       </c>
       <c r="E80" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F80" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G80" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H80">
         <v>600</v>
@@ -3112,13 +3145,13 @@
         <v>75</v>
       </c>
       <c r="E81" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F81" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G81" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H81">
         <v>600</v>
@@ -3138,13 +3171,13 @@
         <v>66</v>
       </c>
       <c r="E82" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F82" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G82" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H82">
         <v>600</v>
@@ -3164,13 +3197,13 @@
         <v>76</v>
       </c>
       <c r="E83" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F83" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G83" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H83">
         <v>600</v>
@@ -3190,13 +3223,13 @@
         <v>71</v>
       </c>
       <c r="E84" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F84" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G84" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H84">
         <v>600</v>
@@ -3216,13 +3249,13 @@
         <v>49</v>
       </c>
       <c r="E85" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F85" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G85" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H85">
         <v>600</v>
@@ -3242,13 +3275,13 @@
         <v>66</v>
       </c>
       <c r="E86" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F86" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G86" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H86">
         <v>600</v>
@@ -3268,13 +3301,13 @@
         <v>77</v>
       </c>
       <c r="E87" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F87" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G87" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H87">
         <v>600</v>
@@ -3294,13 +3327,13 @@
         <v>61</v>
       </c>
       <c r="E88" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F88" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G88" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H88">
         <v>600</v>
@@ -3320,13 +3353,13 @@
         <v>78</v>
       </c>
       <c r="E89" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F89" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G89" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H89">
         <v>600</v>
@@ -3346,13 +3379,13 @@
         <v>79</v>
       </c>
       <c r="E90" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F90" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G90" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H90">
         <v>600</v>
@@ -3372,13 +3405,13 @@
         <v>55</v>
       </c>
       <c r="E91" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F91" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G91" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H91">
         <v>600</v>
@@ -3398,13 +3431,13 @@
         <v>80</v>
       </c>
       <c r="E92" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F92" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G92" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H92">
         <v>600</v>
@@ -3424,13 +3457,13 @@
         <v>39</v>
       </c>
       <c r="E93" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F93" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G93" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H93">
         <v>600</v>
@@ -3450,13 +3483,13 @@
         <v>81</v>
       </c>
       <c r="E94" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F94" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G94" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H94">
         <v>600</v>
@@ -3476,13 +3509,13 @@
         <v>82</v>
       </c>
       <c r="E95" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F95" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G95" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H95">
         <v>600</v>
@@ -3502,13 +3535,13 @@
         <v>83</v>
       </c>
       <c r="E96" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F96" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G96" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H96">
         <v>600</v>
@@ -3528,13 +3561,13 @@
         <v>84</v>
       </c>
       <c r="E97" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F97" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G97" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H97">
         <v>600</v>
@@ -3554,13 +3587,13 @@
         <v>84</v>
       </c>
       <c r="E98" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F98" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G98" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H98">
         <v>600</v>
@@ -3580,13 +3613,13 @@
         <v>85</v>
       </c>
       <c r="E99" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F99" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G99" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H99">
         <v>600</v>
@@ -3606,13 +3639,13 @@
         <v>86</v>
       </c>
       <c r="E100" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F100" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G100" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H100">
         <v>600</v>
@@ -3632,13 +3665,13 @@
         <v>65</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F101" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G101" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H101">
         <v>600</v>
@@ -3658,13 +3691,13 @@
         <v>73</v>
       </c>
       <c r="E102" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F102" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G102" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H102">
         <v>600</v>
@@ -3684,13 +3717,13 @@
         <v>87</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G103" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H103">
         <v>600</v>
@@ -3710,13 +3743,13 @@
         <v>88</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F104" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G104" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H104">
         <v>600</v>
@@ -3736,13 +3769,13 @@
         <v>72</v>
       </c>
       <c r="E105" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G105" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H105">
         <v>600</v>
@@ -3762,13 +3795,13 @@
         <v>89</v>
       </c>
       <c r="E106" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G106" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H106">
         <v>600</v>
@@ -3788,13 +3821,13 @@
         <v>90</v>
       </c>
       <c r="E107" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F107" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G107" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H107">
         <v>600</v>
@@ -3814,13 +3847,13 @@
         <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F108" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G108" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H108">
         <v>600</v>
@@ -3840,13 +3873,13 @@
         <v>66</v>
       </c>
       <c r="E109" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F109" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G109" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H109">
         <v>600</v>
@@ -3866,13 +3899,13 @@
         <v>91</v>
       </c>
       <c r="E110" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G110" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H110">
         <v>600</v>
@@ -3892,13 +3925,13 @@
         <v>21</v>
       </c>
       <c r="E111" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F111" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G111" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H111">
         <v>600</v>
@@ -3918,13 +3951,13 @@
         <v>92</v>
       </c>
       <c r="E112" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F112" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G112" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H112">
         <v>600</v>
@@ -3944,13 +3977,13 @@
         <v>93</v>
       </c>
       <c r="E113" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F113" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G113" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H113">
         <v>600</v>
@@ -3970,13 +4003,13 @@
         <v>94</v>
       </c>
       <c r="E114" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F114" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G114" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H114">
         <v>600</v>
@@ -3996,13 +4029,13 @@
         <v>58</v>
       </c>
       <c r="E115" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F115" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G115" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H115">
         <v>600</v>
@@ -4022,13 +4055,13 @@
         <v>72</v>
       </c>
       <c r="E116" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F116" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G116" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H116">
         <v>600</v>
@@ -4048,13 +4081,13 @@
         <v>95</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F117" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G117" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H117">
         <v>600</v>
@@ -4074,13 +4107,13 @@
         <v>66</v>
       </c>
       <c r="E118" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F118" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G118" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H118">
         <v>600</v>
@@ -4100,13 +4133,13 @@
         <v>86</v>
       </c>
       <c r="E119" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F119" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G119" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H119">
         <v>600</v>
@@ -4126,13 +4159,13 @@
         <v>65</v>
       </c>
       <c r="E120" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F120" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G120" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H120">
         <v>600</v>
@@ -4152,13 +4185,13 @@
         <v>56</v>
       </c>
       <c r="E121" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F121" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G121" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H121">
         <v>600</v>
@@ -4178,13 +4211,13 @@
         <v>80</v>
       </c>
       <c r="E122" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F122" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G122" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H122">
         <v>600</v>
@@ -4204,13 +4237,13 @@
         <v>96</v>
       </c>
       <c r="E123" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F123" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G123" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H123">
         <v>600</v>
@@ -4230,13 +4263,13 @@
         <v>97</v>
       </c>
       <c r="E124" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F124" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G124" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H124">
         <v>600</v>
@@ -4256,13 +4289,13 @@
         <v>37</v>
       </c>
       <c r="E125" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F125" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G125" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H125">
         <v>600</v>
@@ -4282,13 +4315,13 @@
         <v>87</v>
       </c>
       <c r="E126" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F126" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G126" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H126">
         <v>600</v>
@@ -4308,13 +4341,13 @@
         <v>81</v>
       </c>
       <c r="E127" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F127" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G127" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H127">
         <v>600</v>
@@ -4334,13 +4367,13 @@
         <v>31</v>
       </c>
       <c r="E128" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F128" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G128" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H128">
         <v>600</v>
@@ -4360,13 +4393,13 @@
         <v>65</v>
       </c>
       <c r="E129" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F129" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G129" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H129">
         <v>600</v>
@@ -4386,13 +4419,13 @@
         <v>98</v>
       </c>
       <c r="E130" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F130" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G130" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H130">
         <v>600</v>
@@ -4412,13 +4445,13 @@
         <v>99</v>
       </c>
       <c r="E131" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F131" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G131" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H131">
         <v>600</v>
@@ -4438,13 +4471,13 @@
         <v>83</v>
       </c>
       <c r="E132" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F132" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G132" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H132">
         <v>600</v>
@@ -4464,13 +4497,13 @@
         <v>83</v>
       </c>
       <c r="E133" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F133" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G133" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H133">
         <v>600</v>
@@ -4490,13 +4523,13 @@
         <v>100</v>
       </c>
       <c r="E134" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F134" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G134" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H134">
         <v>600</v>
@@ -4516,13 +4549,13 @@
         <v>101</v>
       </c>
       <c r="E135" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F135" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G135" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H135">
         <v>600</v>
@@ -4542,13 +4575,13 @@
         <v>78</v>
       </c>
       <c r="E136" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F136" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G136" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H136">
         <v>600</v>
@@ -4568,13 +4601,13 @@
         <v>23</v>
       </c>
       <c r="E137" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F137" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G137" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H137">
         <v>600</v>
@@ -4594,13 +4627,13 @@
         <v>102</v>
       </c>
       <c r="E138" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F138" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G138" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H138">
         <v>600</v>
@@ -4620,13 +4653,13 @@
         <v>47</v>
       </c>
       <c r="E139" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F139" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G139" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H139">
         <v>600</v>
@@ -4646,13 +4679,13 @@
         <v>103</v>
       </c>
       <c r="E140" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F140" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G140" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H140">
         <v>600</v>
@@ -4672,13 +4705,13 @@
         <v>38</v>
       </c>
       <c r="E141" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F141" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G141" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H141">
         <v>600</v>
@@ -4698,13 +4731,13 @@
         <v>104</v>
       </c>
       <c r="E142" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F142" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G142" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H142">
         <v>600</v>
@@ -4724,13 +4757,13 @@
         <v>97</v>
       </c>
       <c r="E143" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F143" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G143" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H143">
         <v>600</v>
@@ -4750,13 +4783,13 @@
         <v>91</v>
       </c>
       <c r="E144" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F144" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G144" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H144">
         <v>600</v>
@@ -4776,13 +4809,13 @@
         <v>88</v>
       </c>
       <c r="E145" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F145" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G145" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H145">
         <v>600</v>
@@ -4802,13 +4835,13 @@
         <v>102</v>
       </c>
       <c r="E146" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F146" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G146" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H146">
         <v>600</v>
@@ -4828,13 +4861,13 @@
         <v>31</v>
       </c>
       <c r="E147" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F147" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G147" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H147">
         <v>600</v>
@@ -4854,13 +4887,13 @@
         <v>84</v>
       </c>
       <c r="E148" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F148" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G148" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H148">
         <v>600</v>
@@ -4880,13 +4913,13 @@
         <v>37</v>
       </c>
       <c r="E149" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F149" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G149" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H149">
         <v>600</v>
@@ -4906,13 +4939,13 @@
         <v>31</v>
       </c>
       <c r="E150" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F150" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G150" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H150">
         <v>600</v>
@@ -4932,13 +4965,13 @@
         <v>105</v>
       </c>
       <c r="E151" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F151" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G151" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H151">
         <v>600</v>
@@ -4958,13 +4991,13 @@
         <v>65</v>
       </c>
       <c r="E152" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F152" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G152" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H152">
         <v>600</v>
@@ -4984,13 +5017,13 @@
         <v>92</v>
       </c>
       <c r="E153" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F153" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G153" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H153">
         <v>600</v>
@@ -5010,13 +5043,13 @@
         <v>75</v>
       </c>
       <c r="E154" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F154" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G154" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H154">
         <v>600</v>
@@ -5036,13 +5069,13 @@
         <v>66</v>
       </c>
       <c r="E155" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F155" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G155" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H155">
         <v>600</v>
@@ -5062,13 +5095,13 @@
         <v>53</v>
       </c>
       <c r="E156" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F156" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G156" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H156">
         <v>600</v>
@@ -5088,13 +5121,13 @@
         <v>106</v>
       </c>
       <c r="E157" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F157" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G157" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H157">
         <v>600</v>
@@ -5114,13 +5147,13 @@
         <v>107</v>
       </c>
       <c r="E158" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F158" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G158" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H158">
         <v>600</v>
@@ -5140,13 +5173,13 @@
         <v>65</v>
       </c>
       <c r="E159" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F159" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G159" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H159">
         <v>600</v>
@@ -5166,13 +5199,13 @@
         <v>47</v>
       </c>
       <c r="E160" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F160" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G160" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H160">
         <v>600</v>
@@ -5192,13 +5225,13 @@
         <v>64</v>
       </c>
       <c r="E161" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F161" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G161" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H161">
         <v>600</v>
@@ -5218,13 +5251,13 @@
         <v>108</v>
       </c>
       <c r="E162" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F162" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G162" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H162">
         <v>600</v>
@@ -5244,13 +5277,13 @@
         <v>92</v>
       </c>
       <c r="E163" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F163" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G163" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H163">
         <v>600</v>
@@ -5270,13 +5303,13 @@
         <v>109</v>
       </c>
       <c r="E164" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F164" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G164" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H164">
         <v>600</v>
@@ -5296,13 +5329,13 @@
         <v>110</v>
       </c>
       <c r="E165" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F165" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G165" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H165">
         <v>600</v>
@@ -5322,13 +5355,13 @@
         <v>94</v>
       </c>
       <c r="E166" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F166" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G166" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H166">
         <v>600</v>
@@ -5348,13 +5381,13 @@
         <v>97</v>
       </c>
       <c r="E167" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F167" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="G167" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H167">
         <v>600</v>
@@ -5374,13 +5407,13 @@
         <v>23</v>
       </c>
       <c r="E168" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F168" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G168" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H168">
         <v>600</v>
@@ -5400,13 +5433,13 @@
         <v>83</v>
       </c>
       <c r="E169" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F169" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G169" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H169">
         <v>600</v>
@@ -5426,13 +5459,13 @@
         <v>111</v>
       </c>
       <c r="E170" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F170" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G170" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H170">
         <v>600</v>
@@ -5452,13 +5485,13 @@
         <v>112</v>
       </c>
       <c r="E171" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F171" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G171" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H171">
         <v>600</v>
@@ -5478,13 +5511,13 @@
         <v>82</v>
       </c>
       <c r="E172" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F172" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G172" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H172">
         <v>600</v>
@@ -5504,13 +5537,13 @@
         <v>41</v>
       </c>
       <c r="E173" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F173" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G173" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H173">
         <v>600</v>
@@ -5530,13 +5563,13 @@
         <v>113</v>
       </c>
       <c r="E174" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F174" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G174" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H174">
         <v>600</v>
@@ -5556,13 +5589,13 @@
         <v>114</v>
       </c>
       <c r="E175" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F175" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G175" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H175">
         <v>600</v>
@@ -5582,13 +5615,13 @@
         <v>74</v>
       </c>
       <c r="E176" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F176" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G176" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H176">
         <v>600</v>
@@ -5608,13 +5641,13 @@
         <v>109</v>
       </c>
       <c r="E177" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F177" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G177" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H177">
         <v>600</v>
@@ -5634,13 +5667,13 @@
         <v>104</v>
       </c>
       <c r="E178" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F178" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G178" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H178">
         <v>600</v>
@@ -5660,13 +5693,13 @@
         <v>115</v>
       </c>
       <c r="E179" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F179" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G179" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H179">
         <v>600</v>
@@ -5686,13 +5719,13 @@
         <v>116</v>
       </c>
       <c r="E180" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F180" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G180" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H180">
         <v>600</v>
@@ -5712,13 +5745,13 @@
         <v>67</v>
       </c>
       <c r="E181" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F181" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G181" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H181">
         <v>600</v>
@@ -5738,13 +5771,13 @@
         <v>117</v>
       </c>
       <c r="E182" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F182" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G182" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H182">
         <v>600</v>
@@ -5764,13 +5797,13 @@
         <v>112</v>
       </c>
       <c r="E183" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F183" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G183" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H183">
         <v>600</v>
@@ -5790,13 +5823,13 @@
         <v>118</v>
       </c>
       <c r="E184" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F184" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G184" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H184">
         <v>600</v>
@@ -5816,13 +5849,13 @@
         <v>119</v>
       </c>
       <c r="E185" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F185" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G185" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H185">
         <v>600</v>
@@ -5842,13 +5875,13 @@
         <v>81</v>
       </c>
       <c r="E186" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F186" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G186" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H186">
         <v>600</v>
@@ -5868,13 +5901,13 @@
         <v>77</v>
       </c>
       <c r="E187" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F187" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G187" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H187">
         <v>600</v>
@@ -5894,13 +5927,13 @@
         <v>70</v>
       </c>
       <c r="E188" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F188" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G188" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H188">
         <v>600</v>
@@ -5920,13 +5953,13 @@
         <v>109</v>
       </c>
       <c r="E189" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F189" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G189" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H189">
         <v>600</v>
@@ -5946,13 +5979,13 @@
         <v>60</v>
       </c>
       <c r="E190" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F190" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G190" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H190">
         <v>600</v>
@@ -5972,13 +6005,13 @@
         <v>52</v>
       </c>
       <c r="E191" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F191" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G191" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H191">
         <v>600</v>
@@ -5998,13 +6031,13 @@
         <v>82</v>
       </c>
       <c r="E192" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="F192" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G192" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H192">
         <v>600</v>
@@ -6024,13 +6057,13 @@
         <v>65</v>
       </c>
       <c r="E193" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F193" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="G193" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H193">
         <v>600</v>
@@ -6050,13 +6083,13 @@
         <v>70</v>
       </c>
       <c r="E194" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F194" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G194" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H194">
         <v>600</v>
@@ -6076,13 +6109,13 @@
         <v>18</v>
       </c>
       <c r="E195" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F195" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G195" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H195">
         <v>600</v>
@@ -6102,13 +6135,13 @@
         <v>18</v>
       </c>
       <c r="E196" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F196" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G196" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H196">
         <v>600</v>
@@ -6128,13 +6161,13 @@
         <v>19</v>
       </c>
       <c r="E197" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F197" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G197" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H197">
         <v>600</v>
@@ -6154,13 +6187,13 @@
         <v>120</v>
       </c>
       <c r="E198" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F198" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G198" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H198">
         <v>600</v>
@@ -6180,13 +6213,13 @@
         <v>70</v>
       </c>
       <c r="E199" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F199" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G199" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H199">
         <v>600</v>
@@ -6206,13 +6239,13 @@
         <v>121</v>
       </c>
       <c r="E200" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F200" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G200" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H200">
         <v>600</v>
@@ -6232,13 +6265,13 @@
         <v>22</v>
       </c>
       <c r="E201" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F201" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G201" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H201">
         <v>600</v>
@@ -6258,13 +6291,13 @@
         <v>18</v>
       </c>
       <c r="E202" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F202" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G202" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H202">
         <v>600</v>
@@ -6284,13 +6317,13 @@
         <v>122</v>
       </c>
       <c r="E203" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F203" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G203" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H203">
         <v>600</v>
@@ -6310,13 +6343,13 @@
         <v>123</v>
       </c>
       <c r="E204" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F204" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G204" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H204">
         <v>600</v>
@@ -6336,13 +6369,13 @@
         <v>18</v>
       </c>
       <c r="E205" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F205" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G205" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H205">
         <v>600</v>
@@ -6362,13 +6395,13 @@
         <v>124</v>
       </c>
       <c r="E206" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F206" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G206" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H206">
         <v>600</v>
@@ -6388,13 +6421,13 @@
         <v>125</v>
       </c>
       <c r="E207" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F207" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G207" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H207">
         <v>600</v>
@@ -6414,13 +6447,13 @@
         <v>126</v>
       </c>
       <c r="E208" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F208" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G208" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H208">
         <v>600</v>
@@ -6440,13 +6473,13 @@
         <v>127</v>
       </c>
       <c r="E209" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F209" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G209" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H209">
         <v>600</v>
@@ -6466,13 +6499,13 @@
         <v>70</v>
       </c>
       <c r="E210" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F210" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G210" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H210">
         <v>600</v>
@@ -6492,13 +6525,13 @@
         <v>22</v>
       </c>
       <c r="E211" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F211" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G211" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H211">
         <v>600</v>
@@ -6518,13 +6551,13 @@
         <v>128</v>
       </c>
       <c r="E212" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F212" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G212" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H212">
         <v>600</v>
@@ -6544,13 +6577,13 @@
         <v>106</v>
       </c>
       <c r="E213" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F213" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G213" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H213">
         <v>600</v>
@@ -6570,13 +6603,13 @@
         <v>106</v>
       </c>
       <c r="E214" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F214" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G214" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H214">
         <v>600</v>
@@ -6596,13 +6629,13 @@
         <v>129</v>
       </c>
       <c r="E215" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F215" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G215" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H215">
         <v>600</v>
@@ -6622,13 +6655,13 @@
         <v>130</v>
       </c>
       <c r="E216" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F216" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G216" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H216">
         <v>600</v>
@@ -6648,13 +6681,13 @@
         <v>131</v>
       </c>
       <c r="E217" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F217" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G217" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H217">
         <v>600</v>
@@ -6674,13 +6707,13 @@
         <v>132</v>
       </c>
       <c r="E218" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F218" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G218" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H218">
         <v>600</v>
@@ -6700,13 +6733,13 @@
         <v>56</v>
       </c>
       <c r="E219" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F219" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G219" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H219">
         <v>600</v>
@@ -6726,13 +6759,13 @@
         <v>133</v>
       </c>
       <c r="E220" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F220" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G220" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H220">
         <v>600</v>
@@ -6752,13 +6785,13 @@
         <v>134</v>
       </c>
       <c r="E221" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F221" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G221" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H221">
         <v>200</v>
@@ -6778,13 +6811,13 @@
         <v>126</v>
       </c>
       <c r="E222" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F222" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G222" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H222">
         <v>600</v>
@@ -6804,13 +6837,13 @@
         <v>135</v>
       </c>
       <c r="E223" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F223" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G223" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H223">
         <v>600</v>
@@ -6830,13 +6863,13 @@
         <v>136</v>
       </c>
       <c r="E224" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F224" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G224" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H224">
         <v>600</v>
@@ -6856,13 +6889,13 @@
         <v>137</v>
       </c>
       <c r="E225" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F225" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G225" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H225">
         <v>600</v>
@@ -6882,13 +6915,13 @@
         <v>138</v>
       </c>
       <c r="E226" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F226" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G226" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H226">
         <v>600</v>
@@ -6908,13 +6941,13 @@
         <v>20</v>
       </c>
       <c r="E227" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F227" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G227" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H227">
         <v>600</v>
@@ -6934,13 +6967,13 @@
         <v>64</v>
       </c>
       <c r="E228" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F228" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G228" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H228">
         <v>600</v>
@@ -6960,13 +6993,13 @@
         <v>139</v>
       </c>
       <c r="E229" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F229" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G229" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H229">
         <v>600</v>
@@ -6986,13 +7019,13 @@
         <v>56</v>
       </c>
       <c r="E230" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F230" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G230" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H230">
         <v>600</v>
@@ -7012,13 +7045,13 @@
         <v>12</v>
       </c>
       <c r="E231" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F231" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G231" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H231">
         <v>600</v>
@@ -7038,13 +7071,13 @@
         <v>140</v>
       </c>
       <c r="E232" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F232" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G232" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H232">
         <v>600</v>
@@ -7064,13 +7097,13 @@
         <v>18</v>
       </c>
       <c r="E233" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F233" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G233" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H233">
         <v>600</v>
@@ -7090,13 +7123,13 @@
         <v>141</v>
       </c>
       <c r="E234" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F234" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G234" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H234">
         <v>600</v>
@@ -7116,13 +7149,13 @@
         <v>21</v>
       </c>
       <c r="E235" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F235" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G235" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H235">
         <v>600</v>
@@ -7142,13 +7175,13 @@
         <v>12</v>
       </c>
       <c r="E236" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F236" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G236" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H236">
         <v>600</v>
@@ -7168,13 +7201,13 @@
         <v>142</v>
       </c>
       <c r="E237" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F237" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G237" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H237">
         <v>200</v>
@@ -7194,13 +7227,13 @@
         <v>70</v>
       </c>
       <c r="E238" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F238" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G238" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H238">
         <v>600</v>
@@ -7220,13 +7253,13 @@
         <v>21</v>
       </c>
       <c r="E239" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F239" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G239" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H239">
         <v>600</v>
@@ -7246,13 +7279,13 @@
         <v>19</v>
       </c>
       <c r="E240" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F240" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G240" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H240">
         <v>600</v>
@@ -7272,13 +7305,13 @@
         <v>143</v>
       </c>
       <c r="E241" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F241" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G241" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H241">
         <v>600</v>
@@ -7298,13 +7331,13 @@
         <v>144</v>
       </c>
       <c r="E242" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F242" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G242" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H242">
         <v>600</v>
@@ -7324,13 +7357,13 @@
         <v>14</v>
       </c>
       <c r="E243" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F243" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="G243" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H243">
         <v>600</v>
@@ -7350,13 +7383,13 @@
         <v>145</v>
       </c>
       <c r="E244" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F244" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G244" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H244">
         <v>600</v>
@@ -7376,13 +7409,13 @@
         <v>146</v>
       </c>
       <c r="E245" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F245" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G245" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H245">
         <v>600</v>
@@ -7402,13 +7435,13 @@
         <v>147</v>
       </c>
       <c r="E246" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F246" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G246" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H246">
         <v>600</v>
@@ -7428,13 +7461,13 @@
         <v>11</v>
       </c>
       <c r="E247" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F247" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G247" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H247">
         <v>600</v>
@@ -7454,13 +7487,13 @@
         <v>125</v>
       </c>
       <c r="E248" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F248" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G248" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H248">
         <v>600</v>
@@ -7480,13 +7513,13 @@
         <v>14</v>
       </c>
       <c r="E249" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F249" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G249" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H249">
         <v>600</v>
@@ -7506,13 +7539,13 @@
         <v>148</v>
       </c>
       <c r="E250" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F250" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G250" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H250">
         <v>600</v>
@@ -7532,13 +7565,13 @@
         <v>149</v>
       </c>
       <c r="E251" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F251" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G251" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H251">
         <v>600</v>
@@ -7558,13 +7591,13 @@
         <v>21</v>
       </c>
       <c r="E252" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F252" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G252" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H252">
         <v>600</v>
@@ -7584,13 +7617,13 @@
         <v>125</v>
       </c>
       <c r="E253" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F253" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G253" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H253">
         <v>600</v>
@@ -7610,13 +7643,13 @@
         <v>18</v>
       </c>
       <c r="E254" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F254" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G254" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H254">
         <v>600</v>
@@ -7636,13 +7669,13 @@
         <v>124</v>
       </c>
       <c r="E255" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F255" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G255" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H255">
         <v>600</v>
@@ -7662,13 +7695,13 @@
         <v>22</v>
       </c>
       <c r="E256" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F256" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G256" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H256">
         <v>600</v>
@@ -7688,13 +7721,13 @@
         <v>150</v>
       </c>
       <c r="E257" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F257" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G257" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H257">
         <v>600</v>
@@ -7714,13 +7747,13 @@
         <v>18</v>
       </c>
       <c r="E258" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F258" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G258" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H258">
         <v>600</v>
@@ -7740,13 +7773,13 @@
         <v>64</v>
       </c>
       <c r="E259" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F259" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G259" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H259">
         <v>600</v>
@@ -7766,13 +7799,13 @@
         <v>125</v>
       </c>
       <c r="E260" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F260" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G260" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H260">
         <v>600</v>
@@ -7792,13 +7825,13 @@
         <v>34</v>
       </c>
       <c r="E261" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F261" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G261" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H261">
         <v>600</v>
@@ -7818,13 +7851,13 @@
         <v>22</v>
       </c>
       <c r="E262" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F262" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G262" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H262">
         <v>600</v>
@@ -7844,13 +7877,13 @@
         <v>151</v>
       </c>
       <c r="E263" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F263" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G263" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H263">
         <v>600</v>
@@ -7870,13 +7903,13 @@
         <v>21</v>
       </c>
       <c r="E264" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F264" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G264" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H264">
         <v>600</v>
@@ -7896,13 +7929,13 @@
         <v>64</v>
       </c>
       <c r="E265" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F265" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G265" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H265">
         <v>600</v>
@@ -7922,13 +7955,13 @@
         <v>14</v>
       </c>
       <c r="E266" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F266" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G266" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H266">
         <v>600</v>
@@ -7948,13 +7981,13 @@
         <v>130</v>
       </c>
       <c r="E267" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F267" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G267" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H267">
         <v>600</v>
@@ -7974,13 +8007,13 @@
         <v>152</v>
       </c>
       <c r="E268" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F268" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G268" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H268">
         <v>600</v>
@@ -8000,13 +8033,13 @@
         <v>153</v>
       </c>
       <c r="E269" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F269" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G269" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H269">
         <v>600</v>
@@ -8026,13 +8059,13 @@
         <v>154</v>
       </c>
       <c r="E270" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F270" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G270" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H270">
         <v>600</v>
@@ -8052,13 +8085,13 @@
         <v>70</v>
       </c>
       <c r="E271" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F271" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G271" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H271">
         <v>600</v>
@@ -8078,13 +8111,13 @@
         <v>155</v>
       </c>
       <c r="E272" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F272" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G272" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H272">
         <v>600</v>
@@ -8104,13 +8137,13 @@
         <v>70</v>
       </c>
       <c r="E273" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F273" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G273" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H273">
         <v>600</v>
@@ -8130,13 +8163,13 @@
         <v>124</v>
       </c>
       <c r="E274" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F274" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G274" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H274">
         <v>600</v>
@@ -8156,13 +8189,13 @@
         <v>134</v>
       </c>
       <c r="E275" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F275" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G275" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H275">
         <v>600</v>
@@ -8182,13 +8215,13 @@
         <v>156</v>
       </c>
       <c r="E276" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F276" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G276" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H276">
         <v>600</v>
@@ -8208,13 +8241,13 @@
         <v>157</v>
       </c>
       <c r="E277" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F277" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G277" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H277">
         <v>600</v>
@@ -8234,13 +8267,13 @@
         <v>106</v>
       </c>
       <c r="E278" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F278" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G278" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H278">
         <v>600</v>
@@ -8260,13 +8293,13 @@
         <v>18</v>
       </c>
       <c r="E279" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F279" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G279" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H279">
         <v>600</v>
@@ -8286,13 +8319,13 @@
         <v>12</v>
       </c>
       <c r="E280" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F280" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G280" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H280">
         <v>600</v>
@@ -8312,13 +8345,13 @@
         <v>158</v>
       </c>
       <c r="E281" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F281" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G281" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H281">
         <v>600</v>
@@ -8338,13 +8371,13 @@
         <v>18</v>
       </c>
       <c r="E282" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F282" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G282" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H282">
         <v>600</v>
@@ -8364,13 +8397,13 @@
         <v>159</v>
       </c>
       <c r="E283" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F283" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G283" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H283">
         <v>600</v>
@@ -8390,13 +8423,13 @@
         <v>93</v>
       </c>
       <c r="E284" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F284" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G284" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H284">
         <v>600</v>
@@ -8416,13 +8449,13 @@
         <v>134</v>
       </c>
       <c r="E285" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F285" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G285" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H285">
         <v>600</v>
@@ -8442,13 +8475,13 @@
         <v>22</v>
       </c>
       <c r="E286" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F286" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G286" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H286">
         <v>600</v>
@@ -8468,13 +8501,13 @@
         <v>120</v>
       </c>
       <c r="E287" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F287" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G287" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H287">
         <v>600</v>
@@ -8494,13 +8527,13 @@
         <v>124</v>
       </c>
       <c r="E288" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F288" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G288" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H288">
         <v>600</v>
@@ -8520,13 +8553,13 @@
         <v>93</v>
       </c>
       <c r="E289" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F289" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G289" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H289">
         <v>600</v>
@@ -8546,13 +8579,13 @@
         <v>160</v>
       </c>
       <c r="E290" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F290" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G290" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H290">
         <v>600</v>
@@ -8572,13 +8605,13 @@
         <v>161</v>
       </c>
       <c r="E291" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F291" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G291" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H291">
         <v>600</v>
@@ -8598,13 +8631,13 @@
         <v>130</v>
       </c>
       <c r="E292" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F292" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G292" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H292">
         <v>600</v>
@@ -8624,13 +8657,13 @@
         <v>162</v>
       </c>
       <c r="E293" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F293" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G293" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H293">
         <v>600</v>
@@ -8650,13 +8683,13 @@
         <v>163</v>
       </c>
       <c r="E294" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F294" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G294" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H294">
         <v>600</v>
@@ -8676,13 +8709,13 @@
         <v>164</v>
       </c>
       <c r="E295" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F295" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G295" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H295">
         <v>600</v>
@@ -8702,13 +8735,13 @@
         <v>165</v>
       </c>
       <c r="E296" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F296" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G296" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H296">
         <v>600</v>
@@ -8728,13 +8761,13 @@
         <v>137</v>
       </c>
       <c r="E297" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F297" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G297" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H297">
         <v>600</v>
@@ -8754,13 +8787,13 @@
         <v>156</v>
       </c>
       <c r="E298" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F298" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G298" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H298">
         <v>600</v>
@@ -8780,13 +8813,13 @@
         <v>166</v>
       </c>
       <c r="E299" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F299" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G299" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H299">
         <v>600</v>
@@ -8806,13 +8839,13 @@
         <v>167</v>
       </c>
       <c r="E300" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F300" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G300" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H300">
         <v>600</v>
@@ -8832,13 +8865,13 @@
         <v>128</v>
       </c>
       <c r="E301" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F301" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G301" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H301">
         <v>600</v>
@@ -8858,13 +8891,13 @@
         <v>168</v>
       </c>
       <c r="E302" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F302" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G302" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H302">
         <v>600</v>
@@ -8884,13 +8917,13 @@
         <v>169</v>
       </c>
       <c r="E303" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F303" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G303" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H303">
         <v>600</v>
@@ -8910,13 +8943,13 @@
         <v>12</v>
       </c>
       <c r="E304" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F304" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G304" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H304">
         <v>600</v>
@@ -8936,13 +8969,13 @@
         <v>12</v>
       </c>
       <c r="E305" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F305" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G305" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H305">
         <v>600</v>
@@ -8962,13 +8995,13 @@
         <v>125</v>
       </c>
       <c r="E306" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F306" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G306" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H306">
         <v>600</v>
@@ -8988,13 +9021,13 @@
         <v>170</v>
       </c>
       <c r="E307" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F307" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G307" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H307">
         <v>600</v>
@@ -9014,13 +9047,13 @@
         <v>156</v>
       </c>
       <c r="E308" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F308" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G308" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H308">
         <v>600</v>
@@ -9040,13 +9073,13 @@
         <v>22</v>
       </c>
       <c r="E309" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F309" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G309" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H309">
         <v>600</v>
@@ -9066,13 +9099,13 @@
         <v>12</v>
       </c>
       <c r="E310" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F310" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G310" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H310">
         <v>600</v>
@@ -9092,13 +9125,13 @@
         <v>134</v>
       </c>
       <c r="E311" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F311" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G311" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H311">
         <v>600</v>
@@ -9118,13 +9151,13 @@
         <v>21</v>
       </c>
       <c r="E312" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F312" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G312" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H312">
         <v>600</v>
@@ -9144,13 +9177,13 @@
         <v>171</v>
       </c>
       <c r="E313" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F313" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G313" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H313">
         <v>600</v>
@@ -9170,13 +9203,13 @@
         <v>70</v>
       </c>
       <c r="E314" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F314" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G314" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H314">
         <v>600</v>
@@ -9196,13 +9229,13 @@
         <v>172</v>
       </c>
       <c r="E315" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F315" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G315" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H315">
         <v>600</v>
@@ -9222,13 +9255,13 @@
         <v>173</v>
       </c>
       <c r="E316" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F316" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G316" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H316">
         <v>600</v>
@@ -9248,13 +9281,13 @@
         <v>174</v>
       </c>
       <c r="E317" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F317" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G317" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H317">
         <v>600</v>
@@ -9274,13 +9307,13 @@
         <v>19</v>
       </c>
       <c r="E318" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F318" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G318" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H318">
         <v>600</v>
@@ -9300,13 +9333,13 @@
         <v>175</v>
       </c>
       <c r="E319" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F319" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G319" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H319">
         <v>600</v>
@@ -9326,13 +9359,13 @@
         <v>166</v>
       </c>
       <c r="E320" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F320" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G320" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H320">
         <v>600</v>
@@ -9352,13 +9385,13 @@
         <v>93</v>
       </c>
       <c r="E321" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F321" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G321" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H321">
         <v>600</v>
@@ -9378,13 +9411,13 @@
         <v>176</v>
       </c>
       <c r="E322" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F322" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G322" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H322">
         <v>600</v>
@@ -9404,13 +9437,13 @@
         <v>177</v>
       </c>
       <c r="E323" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F323" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G323" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H323">
         <v>600</v>
@@ -9430,13 +9463,13 @@
         <v>178</v>
       </c>
       <c r="E324" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F324" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G324" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H324">
         <v>600</v>
@@ -9456,13 +9489,13 @@
         <v>179</v>
       </c>
       <c r="E325" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F325" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G325" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H325">
         <v>600</v>
@@ -9482,13 +9515,13 @@
         <v>78</v>
       </c>
       <c r="E326" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F326" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G326" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H326">
         <v>600</v>
@@ -9508,13 +9541,13 @@
         <v>22</v>
       </c>
       <c r="E327" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F327" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G327" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H327">
         <v>600</v>
@@ -9534,13 +9567,13 @@
         <v>180</v>
       </c>
       <c r="E328" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F328" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G328" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H328">
         <v>600</v>
@@ -9560,13 +9593,13 @@
         <v>181</v>
       </c>
       <c r="E329" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F329" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G329" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H329">
         <v>600</v>
@@ -9586,13 +9619,13 @@
         <v>182</v>
       </c>
       <c r="E330" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F330" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G330" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H330">
         <v>600</v>
@@ -9612,13 +9645,13 @@
         <v>78</v>
       </c>
       <c r="E331" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F331" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G331" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H331">
         <v>600</v>
@@ -9638,13 +9671,13 @@
         <v>183</v>
       </c>
       <c r="E332" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F332" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G332" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H332">
         <v>600</v>
@@ -9664,13 +9697,13 @@
         <v>12</v>
       </c>
       <c r="E333" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F333" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G333" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H333">
         <v>600</v>
@@ -9690,13 +9723,13 @@
         <v>184</v>
       </c>
       <c r="E334" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F334" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G334" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H334">
         <v>600</v>
@@ -9716,13 +9749,13 @@
         <v>21</v>
       </c>
       <c r="E335" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F335" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G335" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H335">
         <v>600</v>
@@ -9742,13 +9775,13 @@
         <v>70</v>
       </c>
       <c r="E336" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F336" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G336" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H336">
         <v>600</v>
@@ -9768,13 +9801,13 @@
         <v>185</v>
       </c>
       <c r="E337" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F337" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G337" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H337">
         <v>600</v>
@@ -9794,13 +9827,13 @@
         <v>11</v>
       </c>
       <c r="E338" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F338" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G338" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H338">
         <v>600</v>
@@ -9820,13 +9853,13 @@
         <v>186</v>
       </c>
       <c r="E339" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F339" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G339" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H339">
         <v>600</v>
@@ -9846,13 +9879,13 @@
         <v>139</v>
       </c>
       <c r="E340" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F340" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G340" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H340">
         <v>600</v>
@@ -9872,13 +9905,13 @@
         <v>187</v>
       </c>
       <c r="E341" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F341" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G341" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H341">
         <v>600</v>
@@ -9898,13 +9931,13 @@
         <v>133</v>
       </c>
       <c r="E342" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F342" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G342" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H342">
         <v>600</v>
@@ -9924,13 +9957,13 @@
         <v>188</v>
       </c>
       <c r="E343" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F343" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G343" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H343">
         <v>600</v>
@@ -9950,13 +9983,13 @@
         <v>189</v>
       </c>
       <c r="E344" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F344" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G344" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H344">
         <v>600</v>
@@ -9976,13 +10009,13 @@
         <v>190</v>
       </c>
       <c r="E345" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F345" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G345" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H345">
         <v>600</v>
@@ -10002,13 +10035,13 @@
         <v>191</v>
       </c>
       <c r="E346" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F346" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G346" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H346">
         <v>600</v>
@@ -10028,13 +10061,13 @@
         <v>134</v>
       </c>
       <c r="E347" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F347" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G347" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H347">
         <v>600</v>
@@ -10054,13 +10087,13 @@
         <v>166</v>
       </c>
       <c r="E348" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F348" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G348" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H348">
         <v>600</v>
@@ -10080,13 +10113,13 @@
         <v>192</v>
       </c>
       <c r="E349" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F349" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G349" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H349">
         <v>600</v>
@@ -10106,13 +10139,13 @@
         <v>193</v>
       </c>
       <c r="E350" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F350" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G350" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H350">
         <v>600</v>
@@ -10132,13 +10165,13 @@
         <v>194</v>
       </c>
       <c r="E351" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F351" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G351" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H351">
         <v>600</v>
@@ -10158,13 +10191,13 @@
         <v>22</v>
       </c>
       <c r="E352" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F352" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G352" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H352">
         <v>600</v>
@@ -10184,13 +10217,13 @@
         <v>163</v>
       </c>
       <c r="E353" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F353" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G353" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H353">
         <v>600</v>
@@ -10210,13 +10243,13 @@
         <v>195</v>
       </c>
       <c r="E354" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F354" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G354" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H354">
         <v>600</v>
@@ -10236,13 +10269,13 @@
         <v>12</v>
       </c>
       <c r="E355" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F355" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G355" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H355">
         <v>600</v>
@@ -10262,13 +10295,13 @@
         <v>196</v>
       </c>
       <c r="E356" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F356" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G356" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H356">
         <v>600</v>
@@ -10288,13 +10321,13 @@
         <v>21</v>
       </c>
       <c r="E357" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F357" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G357" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H357">
         <v>600</v>
@@ -10314,13 +10347,13 @@
         <v>197</v>
       </c>
       <c r="E358" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F358" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G358" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H358">
         <v>600</v>
@@ -10340,13 +10373,13 @@
         <v>70</v>
       </c>
       <c r="E359" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F359" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G359" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H359">
         <v>600</v>
@@ -10366,13 +10399,13 @@
         <v>141</v>
       </c>
       <c r="E360" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F360" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G360" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H360">
         <v>600</v>
@@ -10392,13 +10425,13 @@
         <v>198</v>
       </c>
       <c r="E361" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="F361" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="G361" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H361">
         <v>600</v>
@@ -10418,15 +10451,665 @@
         <v>199</v>
       </c>
       <c r="E362" t="s">
+        <v>211</v>
+      </c>
+      <c r="F362" t="s">
+        <v>219</v>
+      </c>
+      <c r="G362" t="s">
+        <v>221</v>
+      </c>
+      <c r="H362">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8">
+      <c r="A363" t="s">
+        <v>9</v>
+      </c>
+      <c r="B363" t="s">
+        <v>10</v>
+      </c>
+      <c r="C363" s="2">
+        <v>45600.49583333333</v>
+      </c>
+      <c r="D363" t="s">
+        <v>200</v>
+      </c>
+      <c r="E363" t="s">
+        <v>211</v>
+      </c>
+      <c r="F363" t="s">
+        <v>220</v>
+      </c>
+      <c r="G363" t="s">
+        <v>221</v>
+      </c>
+      <c r="H363">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8">
+      <c r="A364" t="s">
+        <v>9</v>
+      </c>
+      <c r="B364" t="s">
+        <v>10</v>
+      </c>
+      <c r="C364" s="2">
+        <v>45607.50694444445</v>
+      </c>
+      <c r="D364" t="s">
+        <v>93</v>
+      </c>
+      <c r="E364" t="s">
+        <v>211</v>
+      </c>
+      <c r="F364" t="s">
+        <v>220</v>
+      </c>
+      <c r="G364" t="s">
+        <v>221</v>
+      </c>
+      <c r="H364">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8">
+      <c r="A365" t="s">
+        <v>9</v>
+      </c>
+      <c r="B365" t="s">
+        <v>10</v>
+      </c>
+      <c r="C365" s="2">
+        <v>45614.51111111111</v>
+      </c>
+      <c r="D365" t="s">
+        <v>22</v>
+      </c>
+      <c r="E365" t="s">
+        <v>211</v>
+      </c>
+      <c r="F365" t="s">
+        <v>220</v>
+      </c>
+      <c r="G365" t="s">
+        <v>221</v>
+      </c>
+      <c r="H365">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8">
+      <c r="A366" t="s">
+        <v>9</v>
+      </c>
+      <c r="B366" t="s">
+        <v>10</v>
+      </c>
+      <c r="C366" s="2">
+        <v>45621.52986111111</v>
+      </c>
+      <c r="D366" t="s">
         <v>201</v>
       </c>
-      <c r="F362" t="s">
+      <c r="E366" t="s">
+        <v>211</v>
+      </c>
+      <c r="F366" t="s">
+        <v>220</v>
+      </c>
+      <c r="G366" t="s">
+        <v>221</v>
+      </c>
+      <c r="H366">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8">
+      <c r="A367" t="s">
+        <v>9</v>
+      </c>
+      <c r="B367" t="s">
+        <v>10</v>
+      </c>
+      <c r="C367" s="2">
+        <v>45635.52291666667</v>
+      </c>
+      <c r="D367" t="s">
+        <v>106</v>
+      </c>
+      <c r="E367" t="s">
+        <v>211</v>
+      </c>
+      <c r="F367" t="s">
+        <v>220</v>
+      </c>
+      <c r="G367" t="s">
+        <v>221</v>
+      </c>
+      <c r="H367">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8">
+      <c r="A368" t="s">
+        <v>9</v>
+      </c>
+      <c r="B368" t="s">
+        <v>10</v>
+      </c>
+      <c r="C368" s="2">
+        <v>45642.50625</v>
+      </c>
+      <c r="D368" t="s">
+        <v>120</v>
+      </c>
+      <c r="E368" t="s">
+        <v>211</v>
+      </c>
+      <c r="F368" t="s">
+        <v>220</v>
+      </c>
+      <c r="G368" t="s">
+        <v>221</v>
+      </c>
+      <c r="H368">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8">
+      <c r="A369" t="s">
+        <v>9</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" s="2">
+        <v>45649.47847222222</v>
+      </c>
+      <c r="D369" t="s">
+        <v>19</v>
+      </c>
+      <c r="E369" t="s">
+        <v>211</v>
+      </c>
+      <c r="F369" t="s">
+        <v>220</v>
+      </c>
+      <c r="G369" t="s">
+        <v>221</v>
+      </c>
+      <c r="H369">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8">
+      <c r="A370" t="s">
+        <v>9</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" s="2">
+        <v>45656.57847222222</v>
+      </c>
+      <c r="D370" t="s">
+        <v>202</v>
+      </c>
+      <c r="E370" t="s">
+        <v>211</v>
+      </c>
+      <c r="F370" t="s">
+        <v>220</v>
+      </c>
+      <c r="G370" t="s">
+        <v>221</v>
+      </c>
+      <c r="H370">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8">
+      <c r="A371" t="s">
+        <v>9</v>
+      </c>
+      <c r="B371" t="s">
+        <v>10</v>
+      </c>
+      <c r="C371" s="2">
+        <v>45663.51041666666</v>
+      </c>
+      <c r="D371" t="s">
+        <v>203</v>
+      </c>
+      <c r="E371" t="s">
+        <v>211</v>
+      </c>
+      <c r="F371" t="s">
+        <v>220</v>
+      </c>
+      <c r="G371" t="s">
+        <v>221</v>
+      </c>
+      <c r="H371">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8">
+      <c r="A372" t="s">
+        <v>9</v>
+      </c>
+      <c r="B372" t="s">
+        <v>10</v>
+      </c>
+      <c r="C372" s="2">
+        <v>45670.50972222222</v>
+      </c>
+      <c r="D372" t="s">
+        <v>204</v>
+      </c>
+      <c r="E372" t="s">
+        <v>211</v>
+      </c>
+      <c r="F372" t="s">
+        <v>220</v>
+      </c>
+      <c r="G372" t="s">
+        <v>221</v>
+      </c>
+      <c r="H372">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8">
+      <c r="A373" t="s">
+        <v>9</v>
+      </c>
+      <c r="B373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373" s="2">
+        <v>45678.51388888889</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>211</v>
+      </c>
+      <c r="F373" t="s">
+        <v>220</v>
+      </c>
+      <c r="G373" t="s">
+        <v>221</v>
+      </c>
+      <c r="H373">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8">
+      <c r="A374" t="s">
+        <v>9</v>
+      </c>
+      <c r="B374" t="s">
+        <v>10</v>
+      </c>
+      <c r="C374" s="2">
+        <v>45685.51388888889</v>
+      </c>
+      <c r="D374" t="s">
+        <v>195</v>
+      </c>
+      <c r="E374" t="s">
+        <v>211</v>
+      </c>
+      <c r="F374" t="s">
+        <v>220</v>
+      </c>
+      <c r="G374" t="s">
+        <v>221</v>
+      </c>
+      <c r="H374">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8">
+      <c r="A375" t="s">
+        <v>9</v>
+      </c>
+      <c r="B375" t="s">
+        <v>10</v>
+      </c>
+      <c r="C375" s="2">
+        <v>45691.50138888889</v>
+      </c>
+      <c r="D375" t="s">
+        <v>20</v>
+      </c>
+      <c r="E375" t="s">
+        <v>211</v>
+      </c>
+      <c r="F375" t="s">
+        <v>220</v>
+      </c>
+      <c r="G375" t="s">
+        <v>221</v>
+      </c>
+      <c r="H375">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8">
+      <c r="A376" t="s">
+        <v>9</v>
+      </c>
+      <c r="B376" t="s">
+        <v>10</v>
+      </c>
+      <c r="C376" s="2">
+        <v>45698.52222222222</v>
+      </c>
+      <c r="D376" t="s">
+        <v>205</v>
+      </c>
+      <c r="E376" t="s">
+        <v>211</v>
+      </c>
+      <c r="F376" t="s">
+        <v>220</v>
+      </c>
+      <c r="G376" t="s">
+        <v>221</v>
+      </c>
+      <c r="H376">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8">
+      <c r="A377" t="s">
+        <v>9</v>
+      </c>
+      <c r="B377" t="s">
+        <v>10</v>
+      </c>
+      <c r="C377" s="2">
+        <v>45705.50277777778</v>
+      </c>
+      <c r="D377" t="s">
+        <v>56</v>
+      </c>
+      <c r="E377" t="s">
+        <v>211</v>
+      </c>
+      <c r="F377" t="s">
+        <v>220</v>
+      </c>
+      <c r="G377" t="s">
+        <v>221</v>
+      </c>
+      <c r="H377">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8">
+      <c r="A378" t="s">
+        <v>9</v>
+      </c>
+      <c r="B378" t="s">
+        <v>10</v>
+      </c>
+      <c r="C378" s="2">
+        <v>45712.51875</v>
+      </c>
+      <c r="D378" t="s">
+        <v>12</v>
+      </c>
+      <c r="E378" t="s">
+        <v>211</v>
+      </c>
+      <c r="F378" t="s">
+        <v>220</v>
+      </c>
+      <c r="G378" t="s">
+        <v>221</v>
+      </c>
+      <c r="H378">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8">
+      <c r="A379" t="s">
+        <v>9</v>
+      </c>
+      <c r="B379" t="s">
+        <v>10</v>
+      </c>
+      <c r="C379" s="2">
+        <v>45719.47152777778</v>
+      </c>
+      <c r="D379" t="s">
+        <v>56</v>
+      </c>
+      <c r="E379" t="s">
+        <v>211</v>
+      </c>
+      <c r="F379" t="s">
+        <v>220</v>
+      </c>
+      <c r="G379" t="s">
+        <v>221</v>
+      </c>
+      <c r="H379">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8">
+      <c r="A380" t="s">
+        <v>9</v>
+      </c>
+      <c r="B380" t="s">
+        <v>10</v>
+      </c>
+      <c r="C380" s="2">
+        <v>45726.51319444444</v>
+      </c>
+      <c r="D380" t="s">
+        <v>206</v>
+      </c>
+      <c r="E380" t="s">
+        <v>211</v>
+      </c>
+      <c r="F380" t="s">
+        <v>220</v>
+      </c>
+      <c r="G380" t="s">
+        <v>221</v>
+      </c>
+      <c r="H380">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8">
+      <c r="A381" t="s">
+        <v>9</v>
+      </c>
+      <c r="B381" t="s">
+        <v>10</v>
+      </c>
+      <c r="C381" s="2">
+        <v>45733.52291666667</v>
+      </c>
+      <c r="D381" t="s">
+        <v>120</v>
+      </c>
+      <c r="E381" t="s">
+        <v>211</v>
+      </c>
+      <c r="F381" t="s">
+        <v>220</v>
+      </c>
+      <c r="G381" t="s">
+        <v>221</v>
+      </c>
+      <c r="H381">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8">
+      <c r="A382" t="s">
+        <v>9</v>
+      </c>
+      <c r="B382" t="s">
+        <v>10</v>
+      </c>
+      <c r="C382" s="2">
+        <v>45740.48888888889</v>
+      </c>
+      <c r="D382" t="s">
+        <v>106</v>
+      </c>
+      <c r="E382" t="s">
+        <v>211</v>
+      </c>
+      <c r="F382" t="s">
+        <v>220</v>
+      </c>
+      <c r="G382" t="s">
+        <v>221</v>
+      </c>
+      <c r="H382">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8">
+      <c r="A383" t="s">
+        <v>9</v>
+      </c>
+      <c r="B383" t="s">
+        <v>10</v>
+      </c>
+      <c r="C383" s="2">
+        <v>45747.50486111111</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>211</v>
+      </c>
+      <c r="F383" t="s">
+        <v>220</v>
+      </c>
+      <c r="G383" t="s">
+        <v>221</v>
+      </c>
+      <c r="H383">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8">
+      <c r="A384" t="s">
+        <v>9</v>
+      </c>
+      <c r="B384" t="s">
+        <v>10</v>
+      </c>
+      <c r="C384" s="2">
+        <v>45754.55833333333</v>
+      </c>
+      <c r="D384" t="s">
+        <v>207</v>
+      </c>
+      <c r="E384" t="s">
+        <v>211</v>
+      </c>
+      <c r="F384" t="s">
+        <v>220</v>
+      </c>
+      <c r="G384" t="s">
+        <v>221</v>
+      </c>
+      <c r="H384">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8">
+      <c r="A385" t="s">
+        <v>9</v>
+      </c>
+      <c r="B385" t="s">
+        <v>10</v>
+      </c>
+      <c r="C385" s="2">
+        <v>45761.52430555555</v>
+      </c>
+      <c r="D385" t="s">
+        <v>11</v>
+      </c>
+      <c r="E385" t="s">
+        <v>211</v>
+      </c>
+      <c r="F385" t="s">
+        <v>220</v>
+      </c>
+      <c r="G385" t="s">
+        <v>221</v>
+      </c>
+      <c r="H385">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8">
+      <c r="A386" t="s">
+        <v>9</v>
+      </c>
+      <c r="B386" t="s">
+        <v>10</v>
+      </c>
+      <c r="C386" s="2">
+        <v>45770.51041666666</v>
+      </c>
+      <c r="D386" t="s">
+        <v>208</v>
+      </c>
+      <c r="E386" t="s">
+        <v>211</v>
+      </c>
+      <c r="F386" t="s">
+        <v>220</v>
+      </c>
+      <c r="G386" t="s">
+        <v>221</v>
+      </c>
+      <c r="H386">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8">
+      <c r="A387" t="s">
+        <v>9</v>
+      </c>
+      <c r="B387" t="s">
+        <v>10</v>
+      </c>
+      <c r="C387" s="2">
+        <v>45775.52638888889</v>
+      </c>
+      <c r="D387" t="s">
         <v>209</v>
       </c>
-      <c r="G362" t="s">
-        <v>210</v>
-      </c>
-      <c r="H362">
+      <c r="E387" t="s">
+        <v>211</v>
+      </c>
+      <c r="F387" t="s">
+        <v>220</v>
+      </c>
+      <c r="G387" t="s">
+        <v>221</v>
+      </c>
+      <c r="H387">
         <v>600</v>
       </c>
     </row>
